--- a/test/test_old.xlsx
+++ b/test/test_old.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
   <si>
     <t>ID</t>
   </si>
@@ -137,60 +137,57 @@
     <t>步兵</t>
   </si>
   <si>
-    <t>Arms#name#artillery</t>
+    <t>Arms#name#tank</t>
+  </si>
+  <si>
+    <t>坦克（区别翻译2）</t>
+  </si>
+  <si>
+    <t>坦克</t>
+  </si>
+  <si>
+    <t>Arms#name#tank_destroyer</t>
+  </si>
+  <si>
+    <t>dwdw</t>
+  </si>
+  <si>
+    <t>坦歼</t>
+  </si>
+  <si>
+    <t>Arms#name#okok</t>
+  </si>
+  <si>
+    <t>dwdd</t>
+  </si>
+  <si>
+    <t>大无畏</t>
+  </si>
+  <si>
+    <t>Arms#name#test2</t>
+  </si>
+  <si>
+    <t>0.3.2</t>
+  </si>
+  <si>
+    <t>Test#test22#testQ0</t>
+  </si>
+  <si>
+    <t>Share ID</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Arms#name#test3</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
   <si>
     <t>炮兵</t>
   </si>
   <si>
-    <t>Arms#name#test3</t>
-  </si>
-  <si>
-    <t>Share ID</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>Arms#name#tank</t>
-  </si>
-  <si>
-    <t>坦克（区别翻译2）</t>
-  </si>
-  <si>
-    <t>坦克</t>
-  </si>
-  <si>
-    <t>Arms#name#tank_destroyer</t>
-  </si>
-  <si>
-    <t>dwdw</t>
-  </si>
-  <si>
-    <t>坦歼</t>
-  </si>
-  <si>
-    <t>Arms#name#okok</t>
-  </si>
-  <si>
-    <t>dwdd</t>
-  </si>
-  <si>
-    <t>大无畏</t>
-  </si>
-  <si>
-    <t>Arms#name#test2</t>
-  </si>
-  <si>
-    <t>0.3.2</t>
-  </si>
-  <si>
-    <t>Test#test22#testQ0</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
     <t>Bubble#title#1</t>
   </si>
   <si>
@@ -1137,6 +1134,117 @@
   </si>
   <si>
     <t>主基地</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#1000</t>
+  </si>
+  <si>
+    <t>ssss</t>
+  </si>
+  <si>
+    <t>建筑名</t>
+  </si>
+  <si>
+    <t>指挥部废墟</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#1011</t>
+  </si>
+  <si>
+    <t>应急指挥中心</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#2000</t>
+  </si>
+  <si>
+    <t>①号兵营废墟</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#7017</t>
+  </si>
+  <si>
+    <t>综合医院</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#7018</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#8019</t>
+  </si>
+  <si>
+    <t>综合保障局</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#8020</t>
+  </si>
+  <si>
+    <t>联合保障部</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#8021</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#9031</t>
+  </si>
+  <si>
+    <t>工厂中心</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#9032</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#1000</t>
+  </si>
+  <si>
+    <t>建筑描述</t>
+  </si>
+  <si>
+    <t>重建</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#2000</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#1011</t>
+  </si>
+  <si>
+    <t>修建壕沟</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#7017</t>
+  </si>
+  <si>
+    <t>加固地基</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#8021</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#9032</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#7018</t>
+  </si>
+  <si>
+    <t>增设药房</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#8019</t>
+  </si>
+  <si>
+    <t>扩建</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#8020</t>
+  </si>
+  <si>
+    <t>增设库房</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#9031</t>
+  </si>
+  <si>
+    <t>增设组装线</t>
   </si>
   <si>
     <t>Test#test22#testQ1</t>
@@ -1189,12 +1297,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffff00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0033cc33"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1209,8 +1327,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -1508,7 +1628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC170"/>
+  <dimension ref="A1:AC189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1614,7 +1734,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -1876,7 +1996,7 @@
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s"/>
       <c r="E6" t="s"/>
@@ -1898,7 +2018,7 @@
         <v>41</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s"/>
       <c r="O6" t="s"/>
@@ -1919,26 +2039,36 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
       <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
       <c r="J7" t="s"/>
       <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
       <c r="N7" t="s"/>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -1958,13 +2088,15 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
       <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>35</v>
@@ -1981,10 +2113,10 @@
       <c r="J8" t="s"/>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s"/>
       <c r="O8" t="s"/>
@@ -2005,35 +2137,31 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
       <c r="F9" t="s">
         <v>35</v>
       </c>
       <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
       <c r="J9" t="s"/>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s"/>
       <c r="O9" t="s"/>
@@ -2056,34 +2184,24 @@
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s"/>
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
       <c r="J10" t="s"/>
       <c r="K10" t="s"/>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
       <c r="N10" t="s"/>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -2102,72 +2220,82 @@
       <c r="AC10" t="s"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="n">
-        <v>167</v>
-      </c>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s">
+      <c r="B11" s="1" t="s"/>
+      <c r="C11" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="D11" s="1" t="s"/>
+      <c r="E11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
-      <c r="Z11" t="s"/>
-      <c r="AA11" t="s"/>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1" t="s"/>
+      <c r="K11" s="1" t="s"/>
+      <c r="L11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="1" t="s"/>
+      <c r="O11" s="1" t="s"/>
+      <c r="P11" s="1" t="s"/>
+      <c r="Q11" s="1" t="s"/>
+      <c r="R11" s="1" t="s"/>
+      <c r="S11" s="1" t="s"/>
+      <c r="T11" s="1" t="s"/>
+      <c r="U11" s="1" t="s"/>
+      <c r="V11" s="1" t="s"/>
+      <c r="W11" s="1" t="s"/>
+      <c r="X11" s="1" t="s"/>
+      <c r="Y11" s="1" t="s"/>
+      <c r="Z11" s="1" t="s"/>
+      <c r="AA11" s="1" t="s"/>
+      <c r="AB11" s="1" t="s"/>
+      <c r="AC11" s="1" t="s"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
+      <c r="B12" t="s"/>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
       <c r="I12" t="s"/>
       <c r="J12" t="s"/>
       <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
+      <c r="L12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" t="s">
+        <v>61</v>
+      </c>
       <c r="N12" t="s"/>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -2186,84 +2314,84 @@
       <c r="AC12" t="s"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="2" t="s"/>
+      <c r="C13" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="D13" s="2" t="s"/>
+      <c r="E13" s="2" t="s"/>
+      <c r="F13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="n">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s">
+      <c r="G13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" t="s">
-        <v>62</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
+      <c r="I13" s="2" t="s"/>
+      <c r="J13" s="2" t="s"/>
+      <c r="K13" s="2" t="s"/>
+      <c r="L13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="2" t="s"/>
+      <c r="Q13" s="2" t="s"/>
+      <c r="R13" s="2" t="s"/>
+      <c r="S13" s="2" t="s"/>
+      <c r="T13" s="2" t="s"/>
+      <c r="U13" s="2" t="s"/>
+      <c r="V13" s="2" t="s"/>
+      <c r="W13" s="2" t="s"/>
+      <c r="X13" s="2" t="s"/>
+      <c r="Y13" s="2" t="s"/>
+      <c r="Z13" s="2" t="s"/>
+      <c r="AA13" s="2" t="s"/>
+      <c r="AB13" s="2" t="s"/>
+      <c r="AC13" s="2" t="s"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s"/>
       <c r="C14" t="n">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s"/>
       <c r="E14" t="s"/>
       <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
         <v>59</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>60</v>
-      </c>
-      <c r="H14" t="s">
-        <v>61</v>
       </c>
       <c r="I14" t="s"/>
       <c r="J14" t="s"/>
       <c r="K14" t="s"/>
       <c r="L14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M14" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" t="s">
-        <v>66</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
@@ -2280,84 +2408,84 @@
       <c r="AC14" t="s"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s"/>
-      <c r="E15" t="s"/>
-      <c r="F15" t="s">
+      <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2" t="s"/>
+      <c r="C15" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="D15" s="2" t="s"/>
+      <c r="E15" s="2" t="s"/>
+      <c r="F15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" t="s">
-        <v>68</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
-      <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
-      <c r="V15" t="s"/>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
-      <c r="Z15" t="s"/>
-      <c r="AA15" t="s"/>
-      <c r="AB15" t="s"/>
-      <c r="AC15" t="s"/>
+      <c r="I15" s="2" t="s"/>
+      <c r="J15" s="2" t="s"/>
+      <c r="K15" s="2" t="s"/>
+      <c r="L15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="2" t="s"/>
+      <c r="Q15" s="2" t="s"/>
+      <c r="R15" s="2" t="s"/>
+      <c r="S15" s="2" t="s"/>
+      <c r="T15" s="2" t="s"/>
+      <c r="U15" s="2" t="s"/>
+      <c r="V15" s="2" t="s"/>
+      <c r="W15" s="2" t="s"/>
+      <c r="X15" s="2" t="s"/>
+      <c r="Y15" s="2" t="s"/>
+      <c r="Z15" s="2" t="s"/>
+      <c r="AA15" s="2" t="s"/>
+      <c r="AB15" s="2" t="s"/>
+      <c r="AC15" s="2" t="s"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s"/>
       <c r="C16" t="n">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s"/>
       <c r="E16" t="s"/>
       <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
         <v>59</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>60</v>
-      </c>
-      <c r="H16" t="s">
-        <v>61</v>
       </c>
       <c r="I16" t="s"/>
       <c r="J16" t="s"/>
       <c r="K16" t="s"/>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>70</v>
-      </c>
-      <c r="N16" t="s">
-        <v>71</v>
-      </c>
-      <c r="O16" t="s">
-        <v>72</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2375,31 +2503,33 @@
     </row>
     <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s"/>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s"/>
       <c r="E17" t="s"/>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="I17" t="s">
+        <v>78</v>
+      </c>
       <c r="J17" t="s"/>
       <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s"/>
       <c r="O17" t="s"/>
@@ -2420,33 +2550,25 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s"/>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s"/>
       <c r="E18" t="s"/>
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s">
-        <v>79</v>
-      </c>
+      <c r="F18" t="s"/>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s"/>
       <c r="J18" t="s"/>
       <c r="K18" t="s"/>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s"/>
       <c r="O18" t="s"/>
@@ -2467,11 +2589,11 @@
     </row>
     <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s"/>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s"/>
       <c r="E19" t="s"/>
@@ -2482,10 +2604,10 @@
       <c r="J19" t="s"/>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N19" t="s"/>
       <c r="O19" t="s"/>
@@ -2506,11 +2628,11 @@
     </row>
     <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s"/>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s"/>
       <c r="E20" t="s"/>
@@ -2521,10 +2643,10 @@
       <c r="J20" t="s"/>
       <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N20" t="s"/>
       <c r="O20" t="s"/>
@@ -2545,11 +2667,11 @@
     </row>
     <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s"/>
       <c r="E21" t="s"/>
@@ -2560,10 +2682,10 @@
       <c r="J21" t="s"/>
       <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N21" t="s"/>
       <c r="O21" t="s"/>
@@ -2584,11 +2706,11 @@
     </row>
     <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s"/>
       <c r="E22" t="s"/>
@@ -2599,10 +2721,10 @@
       <c r="J22" t="s"/>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N22" t="s"/>
       <c r="O22" t="s"/>
@@ -2623,11 +2745,11 @@
     </row>
     <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s"/>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s"/>
       <c r="E23" t="s"/>
@@ -2636,14 +2758,18 @@
       <c r="H23" t="s"/>
       <c r="I23" t="s"/>
       <c r="J23" t="s"/>
-      <c r="K23" t="s"/>
+      <c r="K23" t="s">
+        <v>91</v>
+      </c>
       <c r="L23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M23" t="s">
-        <v>90</v>
-      </c>
-      <c r="N23" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="N23" t="s">
+        <v>93</v>
+      </c>
       <c r="O23" t="s"/>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2662,11 +2788,11 @@
     </row>
     <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s"/>
       <c r="E24" t="s"/>
@@ -2675,18 +2801,14 @@
       <c r="H24" t="s"/>
       <c r="I24" t="s"/>
       <c r="J24" t="s"/>
-      <c r="K24" t="s">
-        <v>92</v>
-      </c>
+      <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M24" t="s">
-        <v>93</v>
-      </c>
-      <c r="N24" t="s">
-        <v>94</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="N24" t="s"/>
       <c r="O24" t="s"/>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2705,11 +2827,11 @@
     </row>
     <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s"/>
       <c r="E25" t="s"/>
@@ -2720,10 +2842,10 @@
       <c r="J25" t="s"/>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N25" t="s"/>
       <c r="O25" t="s"/>
@@ -2744,11 +2866,11 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s"/>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s"/>
       <c r="E26" t="s"/>
@@ -2759,10 +2881,10 @@
       <c r="J26" t="s"/>
       <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N26" t="s"/>
       <c r="O26" t="s"/>
@@ -2783,11 +2905,11 @@
     </row>
     <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s"/>
       <c r="E27" t="s"/>
@@ -2798,10 +2920,10 @@
       <c r="J27" t="s"/>
       <c r="K27" t="s"/>
       <c r="L27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N27" t="s"/>
       <c r="O27" t="s"/>
@@ -2822,11 +2944,11 @@
     </row>
     <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s"/>
       <c r="C28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s"/>
       <c r="E28" t="s"/>
@@ -2837,10 +2959,10 @@
       <c r="J28" t="s"/>
       <c r="K28" t="s"/>
       <c r="L28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N28" t="s"/>
       <c r="O28" t="s"/>
@@ -2861,11 +2983,11 @@
     </row>
     <row r="29" spans="1:29">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s"/>
       <c r="E29" t="s"/>
@@ -2876,10 +2998,10 @@
       <c r="J29" t="s"/>
       <c r="K29" t="s"/>
       <c r="L29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N29" t="s"/>
       <c r="O29" t="s"/>
@@ -2900,11 +3022,11 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s"/>
       <c r="C30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s"/>
       <c r="E30" t="s"/>
@@ -2915,10 +3037,10 @@
       <c r="J30" t="s"/>
       <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N30" t="s"/>
       <c r="O30" t="s"/>
@@ -2939,11 +3061,11 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s"/>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s"/>
       <c r="E31" t="s"/>
@@ -2954,10 +3076,10 @@
       <c r="J31" t="s"/>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N31" t="s"/>
       <c r="O31" t="s"/>
@@ -2978,11 +3100,11 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s"/>
       <c r="C32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s"/>
       <c r="E32" t="s"/>
@@ -2993,10 +3115,10 @@
       <c r="J32" t="s"/>
       <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N32" t="s"/>
       <c r="O32" t="s"/>
@@ -3017,11 +3139,11 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s"/>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s"/>
       <c r="E33" t="s"/>
@@ -3032,10 +3154,10 @@
       <c r="J33" t="s"/>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N33" t="s"/>
       <c r="O33" t="s"/>
@@ -3056,11 +3178,11 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s"/>
       <c r="C34" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s"/>
       <c r="E34" t="s"/>
@@ -3071,10 +3193,10 @@
       <c r="J34" t="s"/>
       <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N34" t="s"/>
       <c r="O34" t="s"/>
@@ -3095,11 +3217,11 @@
     </row>
     <row r="35" spans="1:29">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s"/>
       <c r="C35" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s"/>
       <c r="E35" t="s"/>
@@ -3110,10 +3232,10 @@
       <c r="J35" t="s"/>
       <c r="K35" t="s"/>
       <c r="L35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N35" t="s"/>
       <c r="O35" t="s"/>
@@ -3134,11 +3256,11 @@
     </row>
     <row r="36" spans="1:29">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s"/>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s"/>
       <c r="E36" t="s"/>
@@ -3149,10 +3271,10 @@
       <c r="J36" t="s"/>
       <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N36" t="s"/>
       <c r="O36" t="s"/>
@@ -3173,11 +3295,11 @@
     </row>
     <row r="37" spans="1:29">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s"/>
       <c r="C37" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s"/>
       <c r="E37" t="s"/>
@@ -3188,10 +3310,10 @@
       <c r="J37" t="s"/>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N37" t="s"/>
       <c r="O37" t="s"/>
@@ -3212,11 +3334,11 @@
     </row>
     <row r="38" spans="1:29">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s"/>
       <c r="C38" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s"/>
       <c r="E38" t="s"/>
@@ -3227,10 +3349,10 @@
       <c r="J38" t="s"/>
       <c r="K38" t="s"/>
       <c r="L38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N38" t="s"/>
       <c r="O38" t="s"/>
@@ -3251,11 +3373,11 @@
     </row>
     <row r="39" spans="1:29">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s"/>
       <c r="C39" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s"/>
       <c r="E39" t="s"/>
@@ -3266,10 +3388,10 @@
       <c r="J39" t="s"/>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N39" t="s"/>
       <c r="O39" t="s"/>
@@ -3290,11 +3412,11 @@
     </row>
     <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s"/>
       <c r="C40" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s"/>
       <c r="E40" t="s"/>
@@ -3305,10 +3427,10 @@
       <c r="J40" t="s"/>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N40" t="s"/>
       <c r="O40" t="s"/>
@@ -3329,11 +3451,11 @@
     </row>
     <row r="41" spans="1:29">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s"/>
       <c r="C41" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s"/>
       <c r="E41" t="s"/>
@@ -3344,10 +3466,10 @@
       <c r="J41" t="s"/>
       <c r="K41" t="s"/>
       <c r="L41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N41" t="s"/>
       <c r="O41" t="s"/>
@@ -3368,11 +3490,11 @@
     </row>
     <row r="42" spans="1:29">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s"/>
       <c r="C42" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s"/>
       <c r="E42" t="s"/>
@@ -3383,10 +3505,10 @@
       <c r="J42" t="s"/>
       <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N42" t="s"/>
       <c r="O42" t="s"/>
@@ -3407,11 +3529,11 @@
     </row>
     <row r="43" spans="1:29">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s"/>
       <c r="C43" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s"/>
       <c r="E43" t="s"/>
@@ -3422,10 +3544,10 @@
       <c r="J43" t="s"/>
       <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N43" t="s"/>
       <c r="O43" t="s"/>
@@ -3446,11 +3568,11 @@
     </row>
     <row r="44" spans="1:29">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s"/>
       <c r="C44" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s"/>
       <c r="E44" t="s"/>
@@ -3461,10 +3583,10 @@
       <c r="J44" t="s"/>
       <c r="K44" t="s"/>
       <c r="L44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N44" t="s"/>
       <c r="O44" t="s"/>
@@ -3485,11 +3607,11 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s"/>
       <c r="C45" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s"/>
       <c r="E45" t="s"/>
@@ -3500,10 +3622,10 @@
       <c r="J45" t="s"/>
       <c r="K45" t="s"/>
       <c r="L45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N45" t="s"/>
       <c r="O45" t="s"/>
@@ -3524,11 +3646,11 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s"/>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s"/>
       <c r="E46" t="s"/>
@@ -3539,10 +3661,10 @@
       <c r="J46" t="s"/>
       <c r="K46" t="s"/>
       <c r="L46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N46" t="s"/>
       <c r="O46" t="s"/>
@@ -3563,11 +3685,11 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s"/>
       <c r="C47" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s"/>
       <c r="E47" t="s"/>
@@ -3578,10 +3700,10 @@
       <c r="J47" t="s"/>
       <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N47" t="s"/>
       <c r="O47" t="s"/>
@@ -3602,11 +3724,11 @@
     </row>
     <row r="48" spans="1:29">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s"/>
       <c r="C48" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s"/>
       <c r="E48" t="s"/>
@@ -3617,10 +3739,10 @@
       <c r="J48" t="s"/>
       <c r="K48" t="s"/>
       <c r="L48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N48" t="s"/>
       <c r="O48" t="s"/>
@@ -3641,11 +3763,11 @@
     </row>
     <row r="49" spans="1:29">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s"/>
       <c r="C49" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s"/>
       <c r="E49" t="s"/>
@@ -3656,10 +3778,10 @@
       <c r="J49" t="s"/>
       <c r="K49" t="s"/>
       <c r="L49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N49" t="s"/>
       <c r="O49" t="s"/>
@@ -3680,11 +3802,11 @@
     </row>
     <row r="50" spans="1:29">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s"/>
       <c r="C50" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s"/>
       <c r="E50" t="s"/>
@@ -3695,10 +3817,10 @@
       <c r="J50" t="s"/>
       <c r="K50" t="s"/>
       <c r="L50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N50" t="s"/>
       <c r="O50" t="s"/>
@@ -3719,11 +3841,11 @@
     </row>
     <row r="51" spans="1:29">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B51" t="s"/>
       <c r="C51" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D51" t="s"/>
       <c r="E51" t="s"/>
@@ -3734,10 +3856,10 @@
       <c r="J51" t="s"/>
       <c r="K51" t="s"/>
       <c r="L51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N51" t="s"/>
       <c r="O51" t="s"/>
@@ -3758,11 +3880,11 @@
     </row>
     <row r="52" spans="1:29">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s"/>
       <c r="C52" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D52" t="s"/>
       <c r="E52" t="s"/>
@@ -3773,10 +3895,10 @@
       <c r="J52" t="s"/>
       <c r="K52" t="s"/>
       <c r="L52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N52" t="s"/>
       <c r="O52" t="s"/>
@@ -3797,11 +3919,11 @@
     </row>
     <row r="53" spans="1:29">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s"/>
       <c r="C53" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s"/>
       <c r="E53" t="s"/>
@@ -3812,10 +3934,10 @@
       <c r="J53" t="s"/>
       <c r="K53" t="s"/>
       <c r="L53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N53" t="s"/>
       <c r="O53" t="s"/>
@@ -3836,11 +3958,11 @@
     </row>
     <row r="54" spans="1:29">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s"/>
       <c r="C54" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s"/>
       <c r="E54" t="s"/>
@@ -3851,10 +3973,10 @@
       <c r="J54" t="s"/>
       <c r="K54" t="s"/>
       <c r="L54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N54" t="s"/>
       <c r="O54" t="s"/>
@@ -3875,11 +3997,11 @@
     </row>
     <row r="55" spans="1:29">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s"/>
       <c r="C55" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s"/>
       <c r="E55" t="s"/>
@@ -3890,10 +4012,10 @@
       <c r="J55" t="s"/>
       <c r="K55" t="s"/>
       <c r="L55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N55" t="s"/>
       <c r="O55" t="s"/>
@@ -3914,11 +4036,11 @@
     </row>
     <row r="56" spans="1:29">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s"/>
       <c r="C56" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s"/>
       <c r="E56" t="s"/>
@@ -3929,10 +4051,10 @@
       <c r="J56" t="s"/>
       <c r="K56" t="s"/>
       <c r="L56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N56" t="s"/>
       <c r="O56" t="s"/>
@@ -3953,11 +4075,11 @@
     </row>
     <row r="57" spans="1:29">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s"/>
       <c r="C57" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s"/>
       <c r="E57" t="s"/>
@@ -3968,10 +4090,10 @@
       <c r="J57" t="s"/>
       <c r="K57" t="s"/>
       <c r="L57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N57" t="s"/>
       <c r="O57" t="s"/>
@@ -3992,11 +4114,11 @@
     </row>
     <row r="58" spans="1:29">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s"/>
       <c r="C58" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D58" t="s"/>
       <c r="E58" t="s"/>
@@ -4007,10 +4129,10 @@
       <c r="J58" t="s"/>
       <c r="K58" t="s"/>
       <c r="L58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N58" t="s"/>
       <c r="O58" t="s"/>
@@ -4031,13 +4153,15 @@
     </row>
     <row r="59" spans="1:29">
       <c r="A59" t="s">
-        <v>163</v>
-      </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="n">
-        <v>53</v>
-      </c>
-      <c r="D59" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" t="s"/>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
       <c r="E59" t="s"/>
       <c r="F59" t="s"/>
       <c r="G59" t="s"/>
@@ -4045,12 +4169,8 @@
       <c r="I59" t="s"/>
       <c r="J59" t="s"/>
       <c r="K59" t="s"/>
-      <c r="L59" t="s">
-        <v>164</v>
-      </c>
-      <c r="M59" t="s">
-        <v>164</v>
-      </c>
+      <c r="L59" t="s"/>
+      <c r="M59" t="s"/>
       <c r="N59" t="s"/>
       <c r="O59" t="s"/>
       <c r="P59" t="s"/>
@@ -4072,13 +4192,11 @@
       <c r="A60" t="s">
         <v>165</v>
       </c>
-      <c r="B60" t="s">
-        <v>163</v>
-      </c>
-      <c r="C60" t="s"/>
-      <c r="D60" t="s">
-        <v>43</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="n">
+        <v>54</v>
+      </c>
+      <c r="D60" t="s"/>
       <c r="E60" t="s"/>
       <c r="F60" t="s"/>
       <c r="G60" t="s"/>
@@ -4086,8 +4204,12 @@
       <c r="I60" t="s"/>
       <c r="J60" t="s"/>
       <c r="K60" t="s"/>
-      <c r="L60" t="s"/>
-      <c r="M60" t="s"/>
+      <c r="L60" t="s">
+        <v>166</v>
+      </c>
+      <c r="M60" t="s">
+        <v>166</v>
+      </c>
       <c r="N60" t="s"/>
       <c r="O60" t="s"/>
       <c r="P60" t="s"/>
@@ -4107,11 +4229,11 @@
     </row>
     <row r="61" spans="1:29">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s"/>
       <c r="C61" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D61" t="s"/>
       <c r="E61" t="s"/>
@@ -4122,10 +4244,10 @@
       <c r="J61" t="s"/>
       <c r="K61" t="s"/>
       <c r="L61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N61" t="s"/>
       <c r="O61" t="s"/>
@@ -4146,11 +4268,11 @@
     </row>
     <row r="62" spans="1:29">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s"/>
       <c r="C62" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D62" t="s"/>
       <c r="E62" t="s"/>
@@ -4161,10 +4283,10 @@
       <c r="J62" t="s"/>
       <c r="K62" t="s"/>
       <c r="L62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N62" t="s"/>
       <c r="O62" t="s"/>
@@ -4185,11 +4307,11 @@
     </row>
     <row r="63" spans="1:29">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s"/>
       <c r="C63" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D63" t="s"/>
       <c r="E63" t="s"/>
@@ -4200,10 +4322,10 @@
       <c r="J63" t="s"/>
       <c r="K63" t="s"/>
       <c r="L63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N63" t="s"/>
       <c r="O63" t="s"/>
@@ -4224,11 +4346,11 @@
     </row>
     <row r="64" spans="1:29">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s"/>
       <c r="C64" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D64" t="s"/>
       <c r="E64" t="s"/>
@@ -4239,10 +4361,10 @@
       <c r="J64" t="s"/>
       <c r="K64" t="s"/>
       <c r="L64" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M64" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N64" t="s"/>
       <c r="O64" t="s"/>
@@ -4263,11 +4385,11 @@
     </row>
     <row r="65" spans="1:29">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B65" t="s"/>
       <c r="C65" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s"/>
       <c r="E65" t="s"/>
@@ -4278,10 +4400,10 @@
       <c r="J65" t="s"/>
       <c r="K65" t="s"/>
       <c r="L65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N65" t="s"/>
       <c r="O65" t="s"/>
@@ -4302,11 +4424,11 @@
     </row>
     <row r="66" spans="1:29">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B66" t="s"/>
       <c r="C66" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D66" t="s"/>
       <c r="E66" t="s"/>
@@ -4317,10 +4439,10 @@
       <c r="J66" t="s"/>
       <c r="K66" t="s"/>
       <c r="L66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N66" t="s"/>
       <c r="O66" t="s"/>
@@ -4341,11 +4463,11 @@
     </row>
     <row r="67" spans="1:29">
       <c r="A67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s"/>
       <c r="C67" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D67" t="s"/>
       <c r="E67" t="s"/>
@@ -4356,10 +4478,10 @@
       <c r="J67" t="s"/>
       <c r="K67" t="s"/>
       <c r="L67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N67" t="s"/>
       <c r="O67" t="s"/>
@@ -4380,11 +4502,11 @@
     </row>
     <row r="68" spans="1:29">
       <c r="A68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s"/>
       <c r="C68" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D68" t="s"/>
       <c r="E68" t="s"/>
@@ -4395,10 +4517,10 @@
       <c r="J68" t="s"/>
       <c r="K68" t="s"/>
       <c r="L68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N68" t="s"/>
       <c r="O68" t="s"/>
@@ -4419,11 +4541,11 @@
     </row>
     <row r="69" spans="1:29">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B69" t="s"/>
       <c r="C69" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s"/>
       <c r="E69" t="s"/>
@@ -4434,10 +4556,10 @@
       <c r="J69" t="s"/>
       <c r="K69" t="s"/>
       <c r="L69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N69" t="s"/>
       <c r="O69" t="s"/>
@@ -4458,11 +4580,11 @@
     </row>
     <row r="70" spans="1:29">
       <c r="A70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B70" t="s"/>
       <c r="C70" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D70" t="s"/>
       <c r="E70" t="s"/>
@@ -4473,10 +4595,10 @@
       <c r="J70" t="s"/>
       <c r="K70" t="s"/>
       <c r="L70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N70" t="s"/>
       <c r="O70" t="s"/>
@@ -4497,11 +4619,11 @@
     </row>
     <row r="71" spans="1:29">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B71" t="s"/>
       <c r="C71" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s"/>
       <c r="E71" t="s"/>
@@ -4512,10 +4634,10 @@
       <c r="J71" t="s"/>
       <c r="K71" t="s"/>
       <c r="L71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N71" t="s"/>
       <c r="O71" t="s"/>
@@ -4536,11 +4658,11 @@
     </row>
     <row r="72" spans="1:29">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s"/>
       <c r="C72" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s"/>
       <c r="E72" t="s"/>
@@ -4551,10 +4673,10 @@
       <c r="J72" t="s"/>
       <c r="K72" t="s"/>
       <c r="L72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N72" t="s"/>
       <c r="O72" t="s"/>
@@ -4575,11 +4697,11 @@
     </row>
     <row r="73" spans="1:29">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B73" t="s"/>
       <c r="C73" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D73" t="s"/>
       <c r="E73" t="s"/>
@@ -4590,10 +4712,10 @@
       <c r="J73" t="s"/>
       <c r="K73" t="s"/>
       <c r="L73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N73" t="s"/>
       <c r="O73" t="s"/>
@@ -4614,11 +4736,11 @@
     </row>
     <row r="74" spans="1:29">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B74" t="s"/>
       <c r="C74" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s"/>
       <c r="E74" t="s"/>
@@ -4629,10 +4751,10 @@
       <c r="J74" t="s"/>
       <c r="K74" t="s"/>
       <c r="L74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N74" t="s"/>
       <c r="O74" t="s"/>
@@ -4653,11 +4775,11 @@
     </row>
     <row r="75" spans="1:29">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s"/>
       <c r="C75" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D75" t="s"/>
       <c r="E75" t="s"/>
@@ -4668,10 +4790,10 @@
       <c r="J75" t="s"/>
       <c r="K75" t="s"/>
       <c r="L75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N75" t="s"/>
       <c r="O75" t="s"/>
@@ -4692,11 +4814,11 @@
     </row>
     <row r="76" spans="1:29">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B76" t="s"/>
       <c r="C76" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D76" t="s"/>
       <c r="E76" t="s"/>
@@ -4707,10 +4829,10 @@
       <c r="J76" t="s"/>
       <c r="K76" t="s"/>
       <c r="L76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N76" t="s"/>
       <c r="O76" t="s"/>
@@ -4731,11 +4853,11 @@
     </row>
     <row r="77" spans="1:29">
       <c r="A77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s"/>
       <c r="C77" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D77" t="s"/>
       <c r="E77" t="s"/>
@@ -4746,10 +4868,10 @@
       <c r="J77" t="s"/>
       <c r="K77" t="s"/>
       <c r="L77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N77" t="s"/>
       <c r="O77" t="s"/>
@@ -4770,11 +4892,11 @@
     </row>
     <row r="78" spans="1:29">
       <c r="A78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s"/>
       <c r="C78" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D78" t="s"/>
       <c r="E78" t="s"/>
@@ -4785,10 +4907,10 @@
       <c r="J78" t="s"/>
       <c r="K78" t="s"/>
       <c r="L78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N78" t="s"/>
       <c r="O78" t="s"/>
@@ -4809,13 +4931,15 @@
     </row>
     <row r="79" spans="1:29">
       <c r="A79" t="s">
-        <v>202</v>
-      </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="n">
-        <v>72</v>
-      </c>
-      <c r="D79" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="B79" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" t="s"/>
+      <c r="D79" t="s">
+        <v>52</v>
+      </c>
       <c r="E79" t="s"/>
       <c r="F79" t="s"/>
       <c r="G79" t="s"/>
@@ -4823,12 +4947,8 @@
       <c r="I79" t="s"/>
       <c r="J79" t="s"/>
       <c r="K79" t="s"/>
-      <c r="L79" t="s">
-        <v>203</v>
-      </c>
-      <c r="M79" t="s">
-        <v>203</v>
-      </c>
+      <c r="L79" t="s"/>
+      <c r="M79" t="s"/>
       <c r="N79" t="s"/>
       <c r="O79" t="s"/>
       <c r="P79" t="s"/>
@@ -4850,13 +4970,11 @@
       <c r="A80" t="s">
         <v>204</v>
       </c>
-      <c r="B80" t="s">
-        <v>202</v>
-      </c>
-      <c r="C80" t="s"/>
-      <c r="D80" t="s">
-        <v>43</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="n">
+        <v>73</v>
+      </c>
+      <c r="D80" t="s"/>
       <c r="E80" t="s"/>
       <c r="F80" t="s"/>
       <c r="G80" t="s"/>
@@ -4864,8 +4982,12 @@
       <c r="I80" t="s"/>
       <c r="J80" t="s"/>
       <c r="K80" t="s"/>
-      <c r="L80" t="s"/>
-      <c r="M80" t="s"/>
+      <c r="L80" t="s">
+        <v>205</v>
+      </c>
+      <c r="M80" t="s">
+        <v>205</v>
+      </c>
       <c r="N80" t="s"/>
       <c r="O80" t="s"/>
       <c r="P80" t="s"/>
@@ -4885,11 +5007,11 @@
     </row>
     <row r="81" spans="1:29">
       <c r="A81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B81" t="s"/>
       <c r="C81" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D81" t="s"/>
       <c r="E81" t="s"/>
@@ -4900,10 +5022,10 @@
       <c r="J81" t="s"/>
       <c r="K81" t="s"/>
       <c r="L81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N81" t="s"/>
       <c r="O81" t="s"/>
@@ -4924,13 +5046,15 @@
     </row>
     <row r="82" spans="1:29">
       <c r="A82" t="s">
-        <v>207</v>
-      </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="n">
-        <v>74</v>
-      </c>
-      <c r="D82" t="s"/>
+        <v>208</v>
+      </c>
+      <c r="B82" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" t="s"/>
+      <c r="D82" t="s">
+        <v>52</v>
+      </c>
       <c r="E82" t="s"/>
       <c r="F82" t="s"/>
       <c r="G82" t="s"/>
@@ -4938,12 +5062,8 @@
       <c r="I82" t="s"/>
       <c r="J82" t="s"/>
       <c r="K82" t="s"/>
-      <c r="L82" t="s">
-        <v>208</v>
-      </c>
-      <c r="M82" t="s">
-        <v>208</v>
-      </c>
+      <c r="L82" t="s"/>
+      <c r="M82" t="s"/>
       <c r="N82" t="s"/>
       <c r="O82" t="s"/>
       <c r="P82" t="s"/>
@@ -4965,13 +5085,11 @@
       <c r="A83" t="s">
         <v>209</v>
       </c>
-      <c r="B83" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" t="s"/>
-      <c r="D83" t="s">
-        <v>43</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="n">
+        <v>75</v>
+      </c>
+      <c r="D83" t="s"/>
       <c r="E83" t="s"/>
       <c r="F83" t="s"/>
       <c r="G83" t="s"/>
@@ -4979,8 +5097,12 @@
       <c r="I83" t="s"/>
       <c r="J83" t="s"/>
       <c r="K83" t="s"/>
-      <c r="L83" t="s"/>
-      <c r="M83" t="s"/>
+      <c r="L83" t="s">
+        <v>210</v>
+      </c>
+      <c r="M83" t="s">
+        <v>210</v>
+      </c>
       <c r="N83" t="s"/>
       <c r="O83" t="s"/>
       <c r="P83" t="s"/>
@@ -5000,11 +5122,11 @@
     </row>
     <row r="84" spans="1:29">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B84" t="s"/>
       <c r="C84" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D84" t="s"/>
       <c r="E84" t="s"/>
@@ -5015,10 +5137,10 @@
       <c r="J84" t="s"/>
       <c r="K84" t="s"/>
       <c r="L84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N84" t="s"/>
       <c r="O84" t="s"/>
@@ -5039,11 +5161,11 @@
     </row>
     <row r="85" spans="1:29">
       <c r="A85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B85" t="s"/>
       <c r="C85" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D85" t="s"/>
       <c r="E85" t="s"/>
@@ -5054,10 +5176,10 @@
       <c r="J85" t="s"/>
       <c r="K85" t="s"/>
       <c r="L85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N85" t="s"/>
       <c r="O85" t="s"/>
@@ -5078,13 +5200,15 @@
     </row>
     <row r="86" spans="1:29">
       <c r="A86" t="s">
-        <v>214</v>
-      </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="n">
-        <v>77</v>
-      </c>
-      <c r="D86" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="B86" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" t="s"/>
+      <c r="D86" t="s">
+        <v>52</v>
+      </c>
       <c r="E86" t="s"/>
       <c r="F86" t="s"/>
       <c r="G86" t="s"/>
@@ -5092,12 +5216,8 @@
       <c r="I86" t="s"/>
       <c r="J86" t="s"/>
       <c r="K86" t="s"/>
-      <c r="L86" t="s">
-        <v>215</v>
-      </c>
-      <c r="M86" t="s">
-        <v>215</v>
-      </c>
+      <c r="L86" t="s"/>
+      <c r="M86" t="s"/>
       <c r="N86" t="s"/>
       <c r="O86" t="s"/>
       <c r="P86" t="s"/>
@@ -5119,13 +5239,11 @@
       <c r="A87" t="s">
         <v>216</v>
       </c>
-      <c r="B87" t="s">
-        <v>214</v>
-      </c>
-      <c r="C87" t="s"/>
-      <c r="D87" t="s">
-        <v>43</v>
-      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="n">
+        <v>78</v>
+      </c>
+      <c r="D87" t="s"/>
       <c r="E87" t="s"/>
       <c r="F87" t="s"/>
       <c r="G87" t="s"/>
@@ -5133,8 +5251,12 @@
       <c r="I87" t="s"/>
       <c r="J87" t="s"/>
       <c r="K87" t="s"/>
-      <c r="L87" t="s"/>
-      <c r="M87" t="s"/>
+      <c r="L87" t="s">
+        <v>217</v>
+      </c>
+      <c r="M87" t="s">
+        <v>217</v>
+      </c>
       <c r="N87" t="s"/>
       <c r="O87" t="s"/>
       <c r="P87" t="s"/>
@@ -5154,11 +5276,11 @@
     </row>
     <row r="88" spans="1:29">
       <c r="A88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B88" t="s"/>
       <c r="C88" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D88" t="s"/>
       <c r="E88" t="s"/>
@@ -5169,10 +5291,10 @@
       <c r="J88" t="s"/>
       <c r="K88" t="s"/>
       <c r="L88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N88" t="s"/>
       <c r="O88" t="s"/>
@@ -5193,11 +5315,11 @@
     </row>
     <row r="89" spans="1:29">
       <c r="A89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B89" t="s"/>
       <c r="C89" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D89" t="s"/>
       <c r="E89" t="s"/>
@@ -5208,10 +5330,10 @@
       <c r="J89" t="s"/>
       <c r="K89" t="s"/>
       <c r="L89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N89" t="s"/>
       <c r="O89" t="s"/>
@@ -5232,11 +5354,11 @@
     </row>
     <row r="90" spans="1:29">
       <c r="A90" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B90" t="s"/>
       <c r="C90" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D90" t="s"/>
       <c r="E90" t="s"/>
@@ -5247,10 +5369,10 @@
       <c r="J90" t="s"/>
       <c r="K90" t="s"/>
       <c r="L90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N90" t="s"/>
       <c r="O90" t="s"/>
@@ -5271,11 +5393,11 @@
     </row>
     <row r="91" spans="1:29">
       <c r="A91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B91" t="s"/>
       <c r="C91" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D91" t="s"/>
       <c r="E91" t="s"/>
@@ -5286,10 +5408,10 @@
       <c r="J91" t="s"/>
       <c r="K91" t="s"/>
       <c r="L91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N91" t="s"/>
       <c r="O91" t="s"/>
@@ -5310,11 +5432,11 @@
     </row>
     <row r="92" spans="1:29">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B92" t="s"/>
       <c r="C92" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D92" t="s"/>
       <c r="E92" t="s"/>
@@ -5325,10 +5447,10 @@
       <c r="J92" t="s"/>
       <c r="K92" t="s"/>
       <c r="L92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N92" t="s"/>
       <c r="O92" t="s"/>
@@ -5349,11 +5471,11 @@
     </row>
     <row r="93" spans="1:29">
       <c r="A93" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B93" t="s"/>
       <c r="C93" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D93" t="s"/>
       <c r="E93" t="s"/>
@@ -5364,10 +5486,10 @@
       <c r="J93" t="s"/>
       <c r="K93" t="s"/>
       <c r="L93" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M93" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N93" t="s"/>
       <c r="O93" t="s"/>
@@ -5388,11 +5510,11 @@
     </row>
     <row r="94" spans="1:29">
       <c r="A94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B94" t="s"/>
       <c r="C94" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D94" t="s"/>
       <c r="E94" t="s"/>
@@ -5403,10 +5525,10 @@
       <c r="J94" t="s"/>
       <c r="K94" t="s"/>
       <c r="L94" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M94" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N94" t="s"/>
       <c r="O94" t="s"/>
@@ -5427,11 +5549,11 @@
     </row>
     <row r="95" spans="1:29">
       <c r="A95" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B95" t="s"/>
       <c r="C95" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D95" t="s"/>
       <c r="E95" t="s"/>
@@ -5442,10 +5564,10 @@
       <c r="J95" t="s"/>
       <c r="K95" t="s"/>
       <c r="L95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N95" t="s"/>
       <c r="O95" t="s"/>
@@ -5466,11 +5588,11 @@
     </row>
     <row r="96" spans="1:29">
       <c r="A96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B96" t="s"/>
       <c r="C96" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D96" t="s"/>
       <c r="E96" t="s"/>
@@ -5481,10 +5603,10 @@
       <c r="J96" t="s"/>
       <c r="K96" t="s"/>
       <c r="L96" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M96" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N96" t="s"/>
       <c r="O96" t="s"/>
@@ -5505,11 +5627,11 @@
     </row>
     <row r="97" spans="1:29">
       <c r="A97" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B97" t="s"/>
       <c r="C97" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D97" t="s"/>
       <c r="E97" t="s"/>
@@ -5520,10 +5642,10 @@
       <c r="J97" t="s"/>
       <c r="K97" t="s"/>
       <c r="L97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N97" t="s"/>
       <c r="O97" t="s"/>
@@ -5544,11 +5666,11 @@
     </row>
     <row r="98" spans="1:29">
       <c r="A98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B98" t="s"/>
       <c r="C98" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D98" t="s"/>
       <c r="E98" t="s"/>
@@ -5559,10 +5681,10 @@
       <c r="J98" t="s"/>
       <c r="K98" t="s"/>
       <c r="L98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N98" t="s"/>
       <c r="O98" t="s"/>
@@ -5583,11 +5705,11 @@
     </row>
     <row r="99" spans="1:29">
       <c r="A99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B99" t="s"/>
       <c r="C99" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D99" t="s"/>
       <c r="E99" t="s"/>
@@ -5598,10 +5720,10 @@
       <c r="J99" t="s"/>
       <c r="K99" t="s"/>
       <c r="L99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N99" t="s"/>
       <c r="O99" t="s"/>
@@ -5622,13 +5744,15 @@
     </row>
     <row r="100" spans="1:29">
       <c r="A100" t="s">
-        <v>241</v>
-      </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="n">
-        <v>90</v>
-      </c>
-      <c r="D100" t="s"/>
+        <v>242</v>
+      </c>
+      <c r="B100" t="s">
+        <v>240</v>
+      </c>
+      <c r="C100" t="s"/>
+      <c r="D100" t="s">
+        <v>52</v>
+      </c>
       <c r="E100" t="s"/>
       <c r="F100" t="s"/>
       <c r="G100" t="s"/>
@@ -5636,12 +5760,8 @@
       <c r="I100" t="s"/>
       <c r="J100" t="s"/>
       <c r="K100" t="s"/>
-      <c r="L100" t="s">
-        <v>242</v>
-      </c>
-      <c r="M100" t="s">
-        <v>242</v>
-      </c>
+      <c r="L100" t="s"/>
+      <c r="M100" t="s"/>
       <c r="N100" t="s"/>
       <c r="O100" t="s"/>
       <c r="P100" t="s"/>
@@ -5663,13 +5783,11 @@
       <c r="A101" t="s">
         <v>243</v>
       </c>
-      <c r="B101" t="s">
-        <v>241</v>
-      </c>
-      <c r="C101" t="s"/>
-      <c r="D101" t="s">
-        <v>43</v>
-      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="n">
+        <v>91</v>
+      </c>
+      <c r="D101" t="s"/>
       <c r="E101" t="s"/>
       <c r="F101" t="s"/>
       <c r="G101" t="s"/>
@@ -5677,8 +5795,12 @@
       <c r="I101" t="s"/>
       <c r="J101" t="s"/>
       <c r="K101" t="s"/>
-      <c r="L101" t="s"/>
-      <c r="M101" t="s"/>
+      <c r="L101" t="s">
+        <v>244</v>
+      </c>
+      <c r="M101" t="s">
+        <v>244</v>
+      </c>
       <c r="N101" t="s"/>
       <c r="O101" t="s"/>
       <c r="P101" t="s"/>
@@ -5698,11 +5820,11 @@
     </row>
     <row r="102" spans="1:29">
       <c r="A102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B102" t="s"/>
       <c r="C102" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D102" t="s"/>
       <c r="E102" t="s"/>
@@ -5713,10 +5835,10 @@
       <c r="J102" t="s"/>
       <c r="K102" t="s"/>
       <c r="L102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N102" t="s"/>
       <c r="O102" t="s"/>
@@ -5737,11 +5859,11 @@
     </row>
     <row r="103" spans="1:29">
       <c r="A103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B103" t="s"/>
       <c r="C103" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D103" t="s"/>
       <c r="E103" t="s"/>
@@ -5752,10 +5874,10 @@
       <c r="J103" t="s"/>
       <c r="K103" t="s"/>
       <c r="L103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N103" t="s"/>
       <c r="O103" t="s"/>
@@ -5776,11 +5898,11 @@
     </row>
     <row r="104" spans="1:29">
       <c r="A104" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B104" t="s"/>
       <c r="C104" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D104" t="s"/>
       <c r="E104" t="s"/>
@@ -5791,10 +5913,10 @@
       <c r="J104" t="s"/>
       <c r="K104" t="s"/>
       <c r="L104" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M104" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N104" t="s"/>
       <c r="O104" t="s"/>
@@ -5815,11 +5937,11 @@
     </row>
     <row r="105" spans="1:29">
       <c r="A105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B105" t="s"/>
       <c r="C105" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D105" t="s"/>
       <c r="E105" t="s"/>
@@ -5830,10 +5952,10 @@
       <c r="J105" t="s"/>
       <c r="K105" t="s"/>
       <c r="L105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N105" t="s"/>
       <c r="O105" t="s"/>
@@ -5854,11 +5976,11 @@
     </row>
     <row r="106" spans="1:29">
       <c r="A106" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B106" t="s"/>
       <c r="C106" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D106" t="s"/>
       <c r="E106" t="s"/>
@@ -5869,10 +5991,10 @@
       <c r="J106" t="s"/>
       <c r="K106" t="s"/>
       <c r="L106" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M106" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N106" t="s"/>
       <c r="O106" t="s"/>
@@ -5893,11 +6015,11 @@
     </row>
     <row r="107" spans="1:29">
       <c r="A107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B107" t="s"/>
       <c r="C107" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D107" t="s"/>
       <c r="E107" t="s"/>
@@ -5908,10 +6030,10 @@
       <c r="J107" t="s"/>
       <c r="K107" t="s"/>
       <c r="L107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N107" t="s"/>
       <c r="O107" t="s"/>
@@ -5932,11 +6054,11 @@
     </row>
     <row r="108" spans="1:29">
       <c r="A108" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B108" t="s"/>
       <c r="C108" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D108" t="s"/>
       <c r="E108" t="s"/>
@@ -5947,10 +6069,10 @@
       <c r="J108" t="s"/>
       <c r="K108" t="s"/>
       <c r="L108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N108" t="s"/>
       <c r="O108" t="s"/>
@@ -5971,11 +6093,11 @@
     </row>
     <row r="109" spans="1:29">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B109" t="s"/>
       <c r="C109" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D109" t="s"/>
       <c r="E109" t="s"/>
@@ -5986,10 +6108,10 @@
       <c r="J109" t="s"/>
       <c r="K109" t="s"/>
       <c r="L109" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M109" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N109" t="s"/>
       <c r="O109" t="s"/>
@@ -6010,11 +6132,11 @@
     </row>
     <row r="110" spans="1:29">
       <c r="A110" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B110" t="s"/>
       <c r="C110" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D110" t="s"/>
       <c r="E110" t="s"/>
@@ -6025,10 +6147,10 @@
       <c r="J110" t="s"/>
       <c r="K110" t="s"/>
       <c r="L110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N110" t="s"/>
       <c r="O110" t="s"/>
@@ -6049,11 +6171,11 @@
     </row>
     <row r="111" spans="1:29">
       <c r="A111" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B111" t="s"/>
       <c r="C111" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D111" t="s"/>
       <c r="E111" t="s"/>
@@ -6064,10 +6186,10 @@
       <c r="J111" t="s"/>
       <c r="K111" t="s"/>
       <c r="L111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N111" t="s"/>
       <c r="O111" t="s"/>
@@ -6088,11 +6210,11 @@
     </row>
     <row r="112" spans="1:29">
       <c r="A112" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B112" t="s"/>
       <c r="C112" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D112" t="s"/>
       <c r="E112" t="s"/>
@@ -6103,10 +6225,10 @@
       <c r="J112" t="s"/>
       <c r="K112" t="s"/>
       <c r="L112" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M112" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N112" t="s"/>
       <c r="O112" t="s"/>
@@ -6127,11 +6249,11 @@
     </row>
     <row r="113" spans="1:29">
       <c r="A113" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B113" t="s"/>
       <c r="C113" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D113" t="s"/>
       <c r="E113" t="s"/>
@@ -6142,10 +6264,10 @@
       <c r="J113" t="s"/>
       <c r="K113" t="s"/>
       <c r="L113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N113" t="s"/>
       <c r="O113" t="s"/>
@@ -6166,11 +6288,11 @@
     </row>
     <row r="114" spans="1:29">
       <c r="A114" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B114" t="s"/>
       <c r="C114" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D114" t="s"/>
       <c r="E114" t="s"/>
@@ -6181,10 +6303,10 @@
       <c r="J114" t="s"/>
       <c r="K114" t="s"/>
       <c r="L114" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M114" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N114" t="s"/>
       <c r="O114" t="s"/>
@@ -6205,11 +6327,11 @@
     </row>
     <row r="115" spans="1:29">
       <c r="A115" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B115" t="s"/>
       <c r="C115" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D115" t="s"/>
       <c r="E115" t="s"/>
@@ -6220,10 +6342,10 @@
       <c r="J115" t="s"/>
       <c r="K115" t="s"/>
       <c r="L115" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M115" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N115" t="s"/>
       <c r="O115" t="s"/>
@@ -6244,11 +6366,11 @@
     </row>
     <row r="116" spans="1:29">
       <c r="A116" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B116" t="s"/>
       <c r="C116" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D116" t="s"/>
       <c r="E116" t="s"/>
@@ -6259,10 +6381,10 @@
       <c r="J116" t="s"/>
       <c r="K116" t="s"/>
       <c r="L116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N116" t="s"/>
       <c r="O116" t="s"/>
@@ -6283,11 +6405,11 @@
     </row>
     <row r="117" spans="1:29">
       <c r="A117" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B117" t="s"/>
       <c r="C117" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D117" t="s"/>
       <c r="E117" t="s"/>
@@ -6298,10 +6420,10 @@
       <c r="J117" t="s"/>
       <c r="K117" t="s"/>
       <c r="L117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N117" t="s"/>
       <c r="O117" t="s"/>
@@ -6322,11 +6444,11 @@
     </row>
     <row r="118" spans="1:29">
       <c r="A118" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B118" t="s"/>
       <c r="C118" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D118" t="s"/>
       <c r="E118" t="s"/>
@@ -6337,10 +6459,10 @@
       <c r="J118" t="s"/>
       <c r="K118" t="s"/>
       <c r="L118" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M118" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N118" t="s"/>
       <c r="O118" t="s"/>
@@ -6361,11 +6483,11 @@
     </row>
     <row r="119" spans="1:29">
       <c r="A119" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B119" t="s"/>
       <c r="C119" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D119" t="s"/>
       <c r="E119" t="s"/>
@@ -6376,10 +6498,10 @@
       <c r="J119" t="s"/>
       <c r="K119" t="s"/>
       <c r="L119" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M119" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N119" t="s"/>
       <c r="O119" t="s"/>
@@ -6400,11 +6522,11 @@
     </row>
     <row r="120" spans="1:29">
       <c r="A120" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B120" t="s"/>
       <c r="C120" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D120" t="s"/>
       <c r="E120" t="s"/>
@@ -6415,10 +6537,10 @@
       <c r="J120" t="s"/>
       <c r="K120" t="s"/>
       <c r="L120" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M120" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N120" t="s"/>
       <c r="O120" t="s"/>
@@ -6439,11 +6561,11 @@
     </row>
     <row r="121" spans="1:29">
       <c r="A121" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B121" t="s"/>
       <c r="C121" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D121" t="s"/>
       <c r="E121" t="s"/>
@@ -6454,10 +6576,10 @@
       <c r="J121" t="s"/>
       <c r="K121" t="s"/>
       <c r="L121" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M121" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N121" t="s"/>
       <c r="O121" t="s"/>
@@ -6478,11 +6600,11 @@
     </row>
     <row r="122" spans="1:29">
       <c r="A122" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B122" t="s"/>
       <c r="C122" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D122" t="s"/>
       <c r="E122" t="s"/>
@@ -6493,10 +6615,10 @@
       <c r="J122" t="s"/>
       <c r="K122" t="s"/>
       <c r="L122" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M122" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N122" t="s"/>
       <c r="O122" t="s"/>
@@ -6517,11 +6639,11 @@
     </row>
     <row r="123" spans="1:29">
       <c r="A123" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B123" t="s"/>
       <c r="C123" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D123" t="s"/>
       <c r="E123" t="s"/>
@@ -6532,10 +6654,10 @@
       <c r="J123" t="s"/>
       <c r="K123" t="s"/>
       <c r="L123" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M123" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N123" t="s"/>
       <c r="O123" t="s"/>
@@ -6556,11 +6678,11 @@
     </row>
     <row r="124" spans="1:29">
       <c r="A124" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B124" t="s"/>
       <c r="C124" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D124" t="s"/>
       <c r="E124" t="s"/>
@@ -6571,10 +6693,10 @@
       <c r="J124" t="s"/>
       <c r="K124" t="s"/>
       <c r="L124" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M124" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N124" t="s"/>
       <c r="O124" t="s"/>
@@ -6595,11 +6717,11 @@
     </row>
     <row r="125" spans="1:29">
       <c r="A125" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B125" t="s"/>
       <c r="C125" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D125" t="s"/>
       <c r="E125" t="s"/>
@@ -6610,10 +6732,10 @@
       <c r="J125" t="s"/>
       <c r="K125" t="s"/>
       <c r="L125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N125" t="s"/>
       <c r="O125" t="s"/>
@@ -6634,11 +6756,11 @@
     </row>
     <row r="126" spans="1:29">
       <c r="A126" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B126" t="s"/>
       <c r="C126" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D126" t="s"/>
       <c r="E126" t="s"/>
@@ -6649,10 +6771,10 @@
       <c r="J126" t="s"/>
       <c r="K126" t="s"/>
       <c r="L126" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M126" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N126" t="s"/>
       <c r="O126" t="s"/>
@@ -6673,11 +6795,11 @@
     </row>
     <row r="127" spans="1:29">
       <c r="A127" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B127" t="s"/>
       <c r="C127" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D127" t="s"/>
       <c r="E127" t="s"/>
@@ -6688,10 +6810,10 @@
       <c r="J127" t="s"/>
       <c r="K127" t="s"/>
       <c r="L127" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M127" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N127" t="s"/>
       <c r="O127" t="s"/>
@@ -6712,11 +6834,11 @@
     </row>
     <row r="128" spans="1:29">
       <c r="A128" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B128" t="s"/>
       <c r="C128" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D128" t="s"/>
       <c r="E128" t="s"/>
@@ -6727,10 +6849,10 @@
       <c r="J128" t="s"/>
       <c r="K128" t="s"/>
       <c r="L128" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M128" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N128" t="s"/>
       <c r="O128" t="s"/>
@@ -6751,11 +6873,11 @@
     </row>
     <row r="129" spans="1:29">
       <c r="A129" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B129" t="s"/>
       <c r="C129" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D129" t="s"/>
       <c r="E129" t="s"/>
@@ -6766,10 +6888,10 @@
       <c r="J129" t="s"/>
       <c r="K129" t="s"/>
       <c r="L129" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M129" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N129" t="s"/>
       <c r="O129" t="s"/>
@@ -6790,11 +6912,11 @@
     </row>
     <row r="130" spans="1:29">
       <c r="A130" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B130" t="s"/>
       <c r="C130" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D130" t="s"/>
       <c r="E130" t="s"/>
@@ -6805,10 +6927,10 @@
       <c r="J130" t="s"/>
       <c r="K130" t="s"/>
       <c r="L130" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M130" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N130" t="s"/>
       <c r="O130" t="s"/>
@@ -6829,11 +6951,11 @@
     </row>
     <row r="131" spans="1:29">
       <c r="A131" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B131" t="s"/>
       <c r="C131" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D131" t="s"/>
       <c r="E131" t="s"/>
@@ -6844,10 +6966,10 @@
       <c r="J131" t="s"/>
       <c r="K131" t="s"/>
       <c r="L131" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M131" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N131" t="s"/>
       <c r="O131" t="s"/>
@@ -6868,11 +6990,11 @@
     </row>
     <row r="132" spans="1:29">
       <c r="A132" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B132" t="s"/>
       <c r="C132" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D132" t="s"/>
       <c r="E132" t="s"/>
@@ -6883,10 +7005,10 @@
       <c r="J132" t="s"/>
       <c r="K132" t="s"/>
       <c r="L132" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M132" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N132" t="s"/>
       <c r="O132" t="s"/>
@@ -6907,11 +7029,11 @@
     </row>
     <row r="133" spans="1:29">
       <c r="A133" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B133" t="s"/>
       <c r="C133" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D133" t="s"/>
       <c r="E133" t="s"/>
@@ -6922,10 +7044,10 @@
       <c r="J133" t="s"/>
       <c r="K133" t="s"/>
       <c r="L133" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M133" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N133" t="s"/>
       <c r="O133" t="s"/>
@@ -6946,11 +7068,11 @@
     </row>
     <row r="134" spans="1:29">
       <c r="A134" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B134" t="s"/>
       <c r="C134" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D134" t="s"/>
       <c r="E134" t="s"/>
@@ -6961,10 +7083,10 @@
       <c r="J134" t="s"/>
       <c r="K134" t="s"/>
       <c r="L134" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M134" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N134" t="s"/>
       <c r="O134" t="s"/>
@@ -6985,11 +7107,11 @@
     </row>
     <row r="135" spans="1:29">
       <c r="A135" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B135" t="s"/>
       <c r="C135" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D135" t="s"/>
       <c r="E135" t="s"/>
@@ -7000,10 +7122,10 @@
       <c r="J135" t="s"/>
       <c r="K135" t="s"/>
       <c r="L135" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M135" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N135" t="s"/>
       <c r="O135" t="s"/>
@@ -7024,11 +7146,11 @@
     </row>
     <row r="136" spans="1:29">
       <c r="A136" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B136" t="s"/>
       <c r="C136" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D136" t="s"/>
       <c r="E136" t="s"/>
@@ -7039,10 +7161,10 @@
       <c r="J136" t="s"/>
       <c r="K136" t="s"/>
       <c r="L136" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M136" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N136" t="s"/>
       <c r="O136" t="s"/>
@@ -7063,11 +7185,11 @@
     </row>
     <row r="137" spans="1:29">
       <c r="A137" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B137" t="s"/>
       <c r="C137" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D137" t="s"/>
       <c r="E137" t="s"/>
@@ -7078,10 +7200,10 @@
       <c r="J137" t="s"/>
       <c r="K137" t="s"/>
       <c r="L137" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M137" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N137" t="s"/>
       <c r="O137" t="s"/>
@@ -7102,11 +7224,11 @@
     </row>
     <row r="138" spans="1:29">
       <c r="A138" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B138" t="s"/>
       <c r="C138" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D138" t="s"/>
       <c r="E138" t="s"/>
@@ -7117,10 +7239,10 @@
       <c r="J138" t="s"/>
       <c r="K138" t="s"/>
       <c r="L138" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M138" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N138" t="s"/>
       <c r="O138" t="s"/>
@@ -7141,11 +7263,11 @@
     </row>
     <row r="139" spans="1:29">
       <c r="A139" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B139" t="s"/>
       <c r="C139" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D139" t="s"/>
       <c r="E139" t="s"/>
@@ -7156,10 +7278,10 @@
       <c r="J139" t="s"/>
       <c r="K139" t="s"/>
       <c r="L139" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M139" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N139" t="s"/>
       <c r="O139" t="s"/>
@@ -7180,11 +7302,11 @@
     </row>
     <row r="140" spans="1:29">
       <c r="A140" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B140" t="s"/>
       <c r="C140" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D140" t="s"/>
       <c r="E140" t="s"/>
@@ -7195,10 +7317,10 @@
       <c r="J140" t="s"/>
       <c r="K140" t="s"/>
       <c r="L140" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M140" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N140" t="s"/>
       <c r="O140" t="s"/>
@@ -7219,11 +7341,11 @@
     </row>
     <row r="141" spans="1:29">
       <c r="A141" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B141" t="s"/>
       <c r="C141" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D141" t="s"/>
       <c r="E141" t="s"/>
@@ -7234,10 +7356,10 @@
       <c r="J141" t="s"/>
       <c r="K141" t="s"/>
       <c r="L141" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M141" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N141" t="s"/>
       <c r="O141" t="s"/>
@@ -7258,11 +7380,11 @@
     </row>
     <row r="142" spans="1:29">
       <c r="A142" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B142" t="s"/>
       <c r="C142" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D142" t="s"/>
       <c r="E142" t="s"/>
@@ -7273,10 +7395,10 @@
       <c r="J142" t="s"/>
       <c r="K142" t="s"/>
       <c r="L142" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M142" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N142" t="s"/>
       <c r="O142" t="s"/>
@@ -7297,11 +7419,11 @@
     </row>
     <row r="143" spans="1:29">
       <c r="A143" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B143" t="s"/>
       <c r="C143" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D143" t="s"/>
       <c r="E143" t="s"/>
@@ -7312,10 +7434,10 @@
       <c r="J143" t="s"/>
       <c r="K143" t="s"/>
       <c r="L143" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M143" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N143" t="s"/>
       <c r="O143" t="s"/>
@@ -7336,11 +7458,11 @@
     </row>
     <row r="144" spans="1:29">
       <c r="A144" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B144" t="s"/>
       <c r="C144" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D144" t="s"/>
       <c r="E144" t="s"/>
@@ -7351,10 +7473,10 @@
       <c r="J144" t="s"/>
       <c r="K144" t="s"/>
       <c r="L144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N144" t="s"/>
       <c r="O144" t="s"/>
@@ -7375,11 +7497,11 @@
     </row>
     <row r="145" spans="1:29">
       <c r="A145" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B145" t="s"/>
       <c r="C145" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D145" t="s"/>
       <c r="E145" t="s"/>
@@ -7390,10 +7512,10 @@
       <c r="J145" t="s"/>
       <c r="K145" t="s"/>
       <c r="L145" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M145" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N145" t="s"/>
       <c r="O145" t="s"/>
@@ -7414,11 +7536,11 @@
     </row>
     <row r="146" spans="1:29">
       <c r="A146" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B146" t="s"/>
       <c r="C146" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D146" t="s"/>
       <c r="E146" t="s"/>
@@ -7429,10 +7551,10 @@
       <c r="J146" t="s"/>
       <c r="K146" t="s"/>
       <c r="L146" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M146" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N146" t="s"/>
       <c r="O146" t="s"/>
@@ -7453,11 +7575,11 @@
     </row>
     <row r="147" spans="1:29">
       <c r="A147" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B147" t="s"/>
       <c r="C147" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D147" t="s"/>
       <c r="E147" t="s"/>
@@ -7468,10 +7590,10 @@
       <c r="J147" t="s"/>
       <c r="K147" t="s"/>
       <c r="L147" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M147" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N147" t="s"/>
       <c r="O147" t="s"/>
@@ -7492,11 +7614,11 @@
     </row>
     <row r="148" spans="1:29">
       <c r="A148" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B148" t="s"/>
       <c r="C148" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D148" t="s"/>
       <c r="E148" t="s"/>
@@ -7507,10 +7629,10 @@
       <c r="J148" t="s"/>
       <c r="K148" t="s"/>
       <c r="L148" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M148" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N148" t="s"/>
       <c r="O148" t="s"/>
@@ -7531,11 +7653,11 @@
     </row>
     <row r="149" spans="1:29">
       <c r="A149" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B149" t="s"/>
       <c r="C149" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D149" t="s"/>
       <c r="E149" t="s"/>
@@ -7546,10 +7668,10 @@
       <c r="J149" t="s"/>
       <c r="K149" t="s"/>
       <c r="L149" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M149" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N149" t="s"/>
       <c r="O149" t="s"/>
@@ -7570,11 +7692,11 @@
     </row>
     <row r="150" spans="1:29">
       <c r="A150" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B150" t="s"/>
       <c r="C150" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D150" t="s"/>
       <c r="E150" t="s"/>
@@ -7585,10 +7707,10 @@
       <c r="J150" t="s"/>
       <c r="K150" t="s"/>
       <c r="L150" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M150" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N150" t="s"/>
       <c r="O150" t="s"/>
@@ -7609,11 +7731,11 @@
     </row>
     <row r="151" spans="1:29">
       <c r="A151" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B151" t="s"/>
       <c r="C151" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D151" t="s"/>
       <c r="E151" t="s"/>
@@ -7624,10 +7746,10 @@
       <c r="J151" t="s"/>
       <c r="K151" t="s"/>
       <c r="L151" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M151" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N151" t="s"/>
       <c r="O151" t="s"/>
@@ -7648,11 +7770,11 @@
     </row>
     <row r="152" spans="1:29">
       <c r="A152" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B152" t="s"/>
       <c r="C152" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D152" t="s"/>
       <c r="E152" t="s"/>
@@ -7663,10 +7785,10 @@
       <c r="J152" t="s"/>
       <c r="K152" t="s"/>
       <c r="L152" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M152" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N152" t="s"/>
       <c r="O152" t="s"/>
@@ -7687,11 +7809,11 @@
     </row>
     <row r="153" spans="1:29">
       <c r="A153" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B153" t="s"/>
       <c r="C153" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D153" t="s"/>
       <c r="E153" t="s"/>
@@ -7702,10 +7824,10 @@
       <c r="J153" t="s"/>
       <c r="K153" t="s"/>
       <c r="L153" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M153" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N153" t="s"/>
       <c r="O153" t="s"/>
@@ -7726,11 +7848,11 @@
     </row>
     <row r="154" spans="1:29">
       <c r="A154" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B154" t="s"/>
       <c r="C154" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D154" t="s"/>
       <c r="E154" t="s"/>
@@ -7741,10 +7863,10 @@
       <c r="J154" t="s"/>
       <c r="K154" t="s"/>
       <c r="L154" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M154" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N154" t="s"/>
       <c r="O154" t="s"/>
@@ -7765,11 +7887,11 @@
     </row>
     <row r="155" spans="1:29">
       <c r="A155" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B155" t="s"/>
       <c r="C155" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D155" t="s"/>
       <c r="E155" t="s"/>
@@ -7780,10 +7902,10 @@
       <c r="J155" t="s"/>
       <c r="K155" t="s"/>
       <c r="L155" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M155" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N155" t="s"/>
       <c r="O155" t="s"/>
@@ -7804,11 +7926,11 @@
     </row>
     <row r="156" spans="1:29">
       <c r="A156" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B156" t="s"/>
       <c r="C156" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D156" t="s"/>
       <c r="E156" t="s"/>
@@ -7819,10 +7941,10 @@
       <c r="J156" t="s"/>
       <c r="K156" t="s"/>
       <c r="L156" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M156" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N156" t="s"/>
       <c r="O156" t="s"/>
@@ -7843,11 +7965,11 @@
     </row>
     <row r="157" spans="1:29">
       <c r="A157" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B157" t="s"/>
       <c r="C157" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D157" t="s"/>
       <c r="E157" t="s"/>
@@ -7858,10 +7980,10 @@
       <c r="J157" t="s"/>
       <c r="K157" t="s"/>
       <c r="L157" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M157" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N157" t="s"/>
       <c r="O157" t="s"/>
@@ -7882,11 +8004,11 @@
     </row>
     <row r="158" spans="1:29">
       <c r="A158" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B158" t="s"/>
       <c r="C158" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D158" t="s"/>
       <c r="E158" t="s"/>
@@ -7897,10 +8019,10 @@
       <c r="J158" t="s"/>
       <c r="K158" t="s"/>
       <c r="L158" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M158" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N158" t="s"/>
       <c r="O158" t="s"/>
@@ -7921,11 +8043,11 @@
     </row>
     <row r="159" spans="1:29">
       <c r="A159" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B159" t="s"/>
       <c r="C159" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D159" t="s"/>
       <c r="E159" t="s"/>
@@ -7936,10 +8058,10 @@
       <c r="J159" t="s"/>
       <c r="K159" t="s"/>
       <c r="L159" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M159" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N159" t="s"/>
       <c r="O159" t="s"/>
@@ -7960,11 +8082,11 @@
     </row>
     <row r="160" spans="1:29">
       <c r="A160" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B160" t="s"/>
       <c r="C160" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D160" t="s"/>
       <c r="E160" t="s"/>
@@ -7975,10 +8097,10 @@
       <c r="J160" t="s"/>
       <c r="K160" t="s"/>
       <c r="L160" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M160" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N160" t="s"/>
       <c r="O160" t="s"/>
@@ -7999,11 +8121,11 @@
     </row>
     <row r="161" spans="1:29">
       <c r="A161" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B161" t="s"/>
       <c r="C161" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D161" t="s"/>
       <c r="E161" t="s"/>
@@ -8014,10 +8136,10 @@
       <c r="J161" t="s"/>
       <c r="K161" t="s"/>
       <c r="L161" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M161" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N161" t="s"/>
       <c r="O161" t="s"/>
@@ -8038,11 +8160,11 @@
     </row>
     <row r="162" spans="1:29">
       <c r="A162" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B162" t="s"/>
       <c r="C162" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D162" t="s"/>
       <c r="E162" t="s"/>
@@ -8053,10 +8175,10 @@
       <c r="J162" t="s"/>
       <c r="K162" t="s"/>
       <c r="L162" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M162" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N162" t="s"/>
       <c r="O162" t="s"/>
@@ -8077,11 +8199,11 @@
     </row>
     <row r="163" spans="1:29">
       <c r="A163" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B163" t="s"/>
       <c r="C163" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D163" t="s"/>
       <c r="E163" t="s"/>
@@ -8092,10 +8214,10 @@
       <c r="J163" t="s"/>
       <c r="K163" t="s"/>
       <c r="L163" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M163" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N163" t="s"/>
       <c r="O163" t="s"/>
@@ -8116,11 +8238,11 @@
     </row>
     <row r="164" spans="1:29">
       <c r="A164" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B164" t="s"/>
       <c r="C164" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D164" t="s"/>
       <c r="E164" t="s"/>
@@ -8131,10 +8253,10 @@
       <c r="J164" t="s"/>
       <c r="K164" t="s"/>
       <c r="L164" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M164" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N164" t="s"/>
       <c r="O164" t="s"/>
@@ -8155,11 +8277,11 @@
     </row>
     <row r="165" spans="1:29">
       <c r="A165" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B165" t="s"/>
       <c r="C165" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D165" t="s"/>
       <c r="E165" t="s"/>
@@ -8170,10 +8292,10 @@
       <c r="J165" t="s"/>
       <c r="K165" t="s"/>
       <c r="L165" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M165" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N165" t="s"/>
       <c r="O165" t="s"/>
@@ -8194,25 +8316,29 @@
     </row>
     <row r="166" spans="1:29">
       <c r="A166" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B166" t="s"/>
       <c r="C166" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D166" t="s"/>
       <c r="E166" t="s"/>
-      <c r="F166" t="s"/>
-      <c r="G166" t="s"/>
+      <c r="F166" t="s">
+        <v>374</v>
+      </c>
+      <c r="G166" t="s">
+        <v>375</v>
+      </c>
       <c r="H166" t="s"/>
       <c r="I166" t="s"/>
       <c r="J166" t="s"/>
       <c r="K166" t="s"/>
       <c r="L166" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M166" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N166" t="s"/>
       <c r="O166" t="s"/>
@@ -8233,33 +8359,29 @@
     </row>
     <row r="167" spans="1:29">
       <c r="A167" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B167" t="s"/>
       <c r="C167" t="n">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D167" t="s"/>
-      <c r="E167" t="s">
-        <v>57</v>
-      </c>
+      <c r="E167" t="s"/>
       <c r="F167" t="s">
-        <v>59</v>
+        <v>374</v>
       </c>
       <c r="G167" t="s">
         <v>375</v>
       </c>
-      <c r="H167" t="s">
-        <v>376</v>
-      </c>
+      <c r="H167" t="s"/>
       <c r="I167" t="s"/>
       <c r="J167" t="s"/>
       <c r="K167" t="s"/>
       <c r="L167" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M167" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N167" t="s"/>
       <c r="O167" t="s"/>
@@ -8280,33 +8402,29 @@
     </row>
     <row r="168" spans="1:29">
       <c r="A168" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B168" t="s"/>
       <c r="C168" t="n">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D168" t="s"/>
-      <c r="E168" t="s">
-        <v>57</v>
-      </c>
+      <c r="E168" t="s"/>
       <c r="F168" t="s">
-        <v>59</v>
+        <v>374</v>
       </c>
       <c r="G168" t="s">
         <v>375</v>
       </c>
-      <c r="H168" t="s">
-        <v>376</v>
-      </c>
+      <c r="H168" t="s"/>
       <c r="I168" t="s"/>
       <c r="J168" t="s"/>
       <c r="K168" t="s"/>
       <c r="L168" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M168" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N168" t="s"/>
       <c r="O168" t="s"/>
@@ -8327,25 +8445,21 @@
     </row>
     <row r="169" spans="1:29">
       <c r="A169" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B169" t="s"/>
       <c r="C169" t="n">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D169" t="s"/>
-      <c r="E169" t="s">
-        <v>381</v>
-      </c>
+      <c r="E169" t="s"/>
       <c r="F169" t="s">
-        <v>59</v>
+        <v>374</v>
       </c>
       <c r="G169" t="s">
         <v>375</v>
       </c>
-      <c r="H169" t="s">
-        <v>376</v>
-      </c>
+      <c r="H169" t="s"/>
       <c r="I169" t="s"/>
       <c r="J169" t="s"/>
       <c r="K169" t="s"/>
@@ -8376,32 +8490,22 @@
       <c r="A170" t="s">
         <v>383</v>
       </c>
-      <c r="B170" t="s"/>
-      <c r="C170" t="n">
-        <v>163</v>
-      </c>
-      <c r="D170" t="s"/>
-      <c r="E170" t="s">
-        <v>384</v>
-      </c>
-      <c r="F170" t="s">
-        <v>59</v>
-      </c>
-      <c r="G170" t="s">
-        <v>375</v>
-      </c>
-      <c r="H170" t="s">
-        <v>376</v>
-      </c>
+      <c r="B170" t="s">
+        <v>381</v>
+      </c>
+      <c r="C170" t="s"/>
+      <c r="D170" t="s">
+        <v>52</v>
+      </c>
+      <c r="E170" t="s"/>
+      <c r="F170" t="s"/>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s"/>
       <c r="I170" t="s"/>
       <c r="J170" t="s"/>
       <c r="K170" t="s"/>
-      <c r="L170" t="s">
-        <v>385</v>
-      </c>
-      <c r="M170" t="s">
-        <v>385</v>
-      </c>
+      <c r="L170" t="s"/>
+      <c r="M170" t="s"/>
       <c r="N170" t="s"/>
       <c r="O170" t="s"/>
       <c r="P170" t="s"/>
@@ -8419,6 +8523,809 @@
       <c r="AB170" t="s"/>
       <c r="AC170" t="s"/>
     </row>
+    <row r="171" spans="1:29">
+      <c r="A171" t="s">
+        <v>384</v>
+      </c>
+      <c r="B171" t="s"/>
+      <c r="C171" t="n">
+        <v>179</v>
+      </c>
+      <c r="D171" t="s"/>
+      <c r="E171" t="s"/>
+      <c r="F171" t="s">
+        <v>374</v>
+      </c>
+      <c r="G171" t="s">
+        <v>375</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s"/>
+      <c r="K171" t="s"/>
+      <c r="L171" t="s">
+        <v>385</v>
+      </c>
+      <c r="M171" t="s">
+        <v>385</v>
+      </c>
+      <c r="N171" t="s"/>
+      <c r="O171" t="s"/>
+      <c r="P171" t="s"/>
+      <c r="Q171" t="s"/>
+      <c r="R171" t="s"/>
+      <c r="S171" t="s"/>
+      <c r="T171" t="s"/>
+      <c r="U171" t="s"/>
+      <c r="V171" t="s"/>
+      <c r="W171" t="s"/>
+      <c r="X171" t="s"/>
+      <c r="Y171" t="s"/>
+      <c r="Z171" t="s"/>
+      <c r="AA171" t="s"/>
+      <c r="AB171" t="s"/>
+      <c r="AC171" t="s"/>
+    </row>
+    <row r="172" spans="1:29">
+      <c r="A172" t="s">
+        <v>386</v>
+      </c>
+      <c r="B172" t="s"/>
+      <c r="C172" t="n">
+        <v>180</v>
+      </c>
+      <c r="D172" t="s"/>
+      <c r="E172" t="s"/>
+      <c r="F172" t="s">
+        <v>374</v>
+      </c>
+      <c r="G172" t="s">
+        <v>375</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s"/>
+      <c r="K172" t="s"/>
+      <c r="L172" t="s">
+        <v>387</v>
+      </c>
+      <c r="M172" t="s">
+        <v>387</v>
+      </c>
+      <c r="N172" t="s"/>
+      <c r="O172" t="s"/>
+      <c r="P172" t="s"/>
+      <c r="Q172" t="s"/>
+      <c r="R172" t="s"/>
+      <c r="S172" t="s"/>
+      <c r="T172" t="s"/>
+      <c r="U172" t="s"/>
+      <c r="V172" t="s"/>
+      <c r="W172" t="s"/>
+      <c r="X172" t="s"/>
+      <c r="Y172" t="s"/>
+      <c r="Z172" t="s"/>
+      <c r="AA172" t="s"/>
+      <c r="AB172" t="s"/>
+      <c r="AC172" t="s"/>
+    </row>
+    <row r="173" spans="1:29">
+      <c r="A173" t="s">
+        <v>388</v>
+      </c>
+      <c r="B173" t="s">
+        <v>386</v>
+      </c>
+      <c r="C173" t="s"/>
+      <c r="D173" t="s">
+        <v>52</v>
+      </c>
+      <c r="E173" t="s"/>
+      <c r="F173" t="s"/>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s"/>
+      <c r="K173" t="s"/>
+      <c r="L173" t="s"/>
+      <c r="M173" t="s"/>
+      <c r="N173" t="s"/>
+      <c r="O173" t="s"/>
+      <c r="P173" t="s"/>
+      <c r="Q173" t="s"/>
+      <c r="R173" t="s"/>
+      <c r="S173" t="s"/>
+      <c r="T173" t="s"/>
+      <c r="U173" t="s"/>
+      <c r="V173" t="s"/>
+      <c r="W173" t="s"/>
+      <c r="X173" t="s"/>
+      <c r="Y173" t="s"/>
+      <c r="Z173" t="s"/>
+      <c r="AA173" t="s"/>
+      <c r="AB173" t="s"/>
+      <c r="AC173" t="s"/>
+    </row>
+    <row r="174" spans="1:29">
+      <c r="A174" t="s">
+        <v>389</v>
+      </c>
+      <c r="B174" t="s"/>
+      <c r="C174" t="n">
+        <v>181</v>
+      </c>
+      <c r="D174" t="s"/>
+      <c r="E174" t="s"/>
+      <c r="F174" t="s">
+        <v>374</v>
+      </c>
+      <c r="G174" t="s">
+        <v>375</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s"/>
+      <c r="K174" t="s"/>
+      <c r="L174" t="s">
+        <v>390</v>
+      </c>
+      <c r="M174" t="s">
+        <v>390</v>
+      </c>
+      <c r="N174" t="s"/>
+      <c r="O174" t="s"/>
+      <c r="P174" t="s"/>
+      <c r="Q174" t="s"/>
+      <c r="R174" t="s"/>
+      <c r="S174" t="s"/>
+      <c r="T174" t="s"/>
+      <c r="U174" t="s"/>
+      <c r="V174" t="s"/>
+      <c r="W174" t="s"/>
+      <c r="X174" t="s"/>
+      <c r="Y174" t="s"/>
+      <c r="Z174" t="s"/>
+      <c r="AA174" t="s"/>
+      <c r="AB174" t="s"/>
+      <c r="AC174" t="s"/>
+    </row>
+    <row r="175" spans="1:29">
+      <c r="A175" t="s">
+        <v>391</v>
+      </c>
+      <c r="B175" t="s">
+        <v>389</v>
+      </c>
+      <c r="C175" t="s"/>
+      <c r="D175" t="s">
+        <v>52</v>
+      </c>
+      <c r="E175" t="s"/>
+      <c r="F175" t="s"/>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s"/>
+      <c r="K175" t="s"/>
+      <c r="L175" t="s"/>
+      <c r="M175" t="s"/>
+      <c r="N175" t="s"/>
+      <c r="O175" t="s"/>
+      <c r="P175" t="s"/>
+      <c r="Q175" t="s"/>
+      <c r="R175" t="s"/>
+      <c r="S175" t="s"/>
+      <c r="T175" t="s"/>
+      <c r="U175" t="s"/>
+      <c r="V175" t="s"/>
+      <c r="W175" t="s"/>
+      <c r="X175" t="s"/>
+      <c r="Y175" t="s"/>
+      <c r="Z175" t="s"/>
+      <c r="AA175" t="s"/>
+      <c r="AB175" t="s"/>
+      <c r="AC175" t="s"/>
+    </row>
+    <row r="176" spans="1:29">
+      <c r="A176" t="s">
+        <v>392</v>
+      </c>
+      <c r="B176" t="s"/>
+      <c r="C176" t="n">
+        <v>184</v>
+      </c>
+      <c r="D176" t="s"/>
+      <c r="E176" t="s"/>
+      <c r="F176" t="s">
+        <v>374</v>
+      </c>
+      <c r="G176" t="s">
+        <v>393</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s"/>
+      <c r="K176" t="s"/>
+      <c r="L176" t="s">
+        <v>394</v>
+      </c>
+      <c r="M176" t="s">
+        <v>394</v>
+      </c>
+      <c r="N176" t="s"/>
+      <c r="O176" t="s"/>
+      <c r="P176" t="s"/>
+      <c r="Q176" t="s"/>
+      <c r="R176" t="s"/>
+      <c r="S176" t="s"/>
+      <c r="T176" t="s"/>
+      <c r="U176" t="s"/>
+      <c r="V176" t="s"/>
+      <c r="W176" t="s"/>
+      <c r="X176" t="s"/>
+      <c r="Y176" t="s"/>
+      <c r="Z176" t="s"/>
+      <c r="AA176" t="s"/>
+      <c r="AB176" t="s"/>
+      <c r="AC176" t="s"/>
+    </row>
+    <row r="177" spans="1:29">
+      <c r="A177" t="s">
+        <v>395</v>
+      </c>
+      <c r="B177" t="s">
+        <v>392</v>
+      </c>
+      <c r="C177" t="s"/>
+      <c r="D177" t="s">
+        <v>52</v>
+      </c>
+      <c r="E177" t="s"/>
+      <c r="F177" t="s"/>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s"/>
+      <c r="K177" t="s"/>
+      <c r="L177" t="s"/>
+      <c r="M177" t="s"/>
+      <c r="N177" t="s"/>
+      <c r="O177" t="s"/>
+      <c r="P177" t="s"/>
+      <c r="Q177" t="s"/>
+      <c r="R177" t="s"/>
+      <c r="S177" t="s"/>
+      <c r="T177" t="s"/>
+      <c r="U177" t="s"/>
+      <c r="V177" t="s"/>
+      <c r="W177" t="s"/>
+      <c r="X177" t="s"/>
+      <c r="Y177" t="s"/>
+      <c r="Z177" t="s"/>
+      <c r="AA177" t="s"/>
+      <c r="AB177" t="s"/>
+      <c r="AC177" t="s"/>
+    </row>
+    <row r="178" spans="1:29">
+      <c r="A178" t="s">
+        <v>396</v>
+      </c>
+      <c r="B178" t="s"/>
+      <c r="C178" t="n">
+        <v>185</v>
+      </c>
+      <c r="D178" t="s"/>
+      <c r="E178" t="s"/>
+      <c r="F178" t="s">
+        <v>374</v>
+      </c>
+      <c r="G178" t="s">
+        <v>393</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s"/>
+      <c r="K178" t="s"/>
+      <c r="L178" t="s">
+        <v>397</v>
+      </c>
+      <c r="M178" t="s">
+        <v>397</v>
+      </c>
+      <c r="N178" t="s"/>
+      <c r="O178" t="s"/>
+      <c r="P178" t="s"/>
+      <c r="Q178" t="s"/>
+      <c r="R178" t="s"/>
+      <c r="S178" t="s"/>
+      <c r="T178" t="s"/>
+      <c r="U178" t="s"/>
+      <c r="V178" t="s"/>
+      <c r="W178" t="s"/>
+      <c r="X178" t="s"/>
+      <c r="Y178" t="s"/>
+      <c r="Z178" t="s"/>
+      <c r="AA178" t="s"/>
+      <c r="AB178" t="s"/>
+      <c r="AC178" t="s"/>
+    </row>
+    <row r="179" spans="1:29">
+      <c r="A179" t="s">
+        <v>398</v>
+      </c>
+      <c r="B179" t="s"/>
+      <c r="C179" t="n">
+        <v>186</v>
+      </c>
+      <c r="D179" t="s"/>
+      <c r="E179" t="s"/>
+      <c r="F179" t="s">
+        <v>374</v>
+      </c>
+      <c r="G179" t="s">
+        <v>393</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s"/>
+      <c r="K179" t="s"/>
+      <c r="L179" t="s">
+        <v>399</v>
+      </c>
+      <c r="M179" t="s">
+        <v>399</v>
+      </c>
+      <c r="N179" t="s"/>
+      <c r="O179" t="s"/>
+      <c r="P179" t="s"/>
+      <c r="Q179" t="s"/>
+      <c r="R179" t="s"/>
+      <c r="S179" t="s"/>
+      <c r="T179" t="s"/>
+      <c r="U179" t="s"/>
+      <c r="V179" t="s"/>
+      <c r="W179" t="s"/>
+      <c r="X179" t="s"/>
+      <c r="Y179" t="s"/>
+      <c r="Z179" t="s"/>
+      <c r="AA179" t="s"/>
+      <c r="AB179" t="s"/>
+      <c r="AC179" t="s"/>
+    </row>
+    <row r="180" spans="1:29">
+      <c r="A180" t="s">
+        <v>400</v>
+      </c>
+      <c r="B180" t="s">
+        <v>398</v>
+      </c>
+      <c r="C180" t="s"/>
+      <c r="D180" t="s">
+        <v>52</v>
+      </c>
+      <c r="E180" t="s"/>
+      <c r="F180" t="s"/>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s"/>
+      <c r="K180" t="s"/>
+      <c r="L180" t="s"/>
+      <c r="M180" t="s"/>
+      <c r="N180" t="s"/>
+      <c r="O180" t="s"/>
+      <c r="P180" t="s"/>
+      <c r="Q180" t="s"/>
+      <c r="R180" t="s"/>
+      <c r="S180" t="s"/>
+      <c r="T180" t="s"/>
+      <c r="U180" t="s"/>
+      <c r="V180" t="s"/>
+      <c r="W180" t="s"/>
+      <c r="X180" t="s"/>
+      <c r="Y180" t="s"/>
+      <c r="Z180" t="s"/>
+      <c r="AA180" t="s"/>
+      <c r="AB180" t="s"/>
+      <c r="AC180" t="s"/>
+    </row>
+    <row r="181" spans="1:29">
+      <c r="A181" t="s">
+        <v>401</v>
+      </c>
+      <c r="B181" t="s">
+        <v>398</v>
+      </c>
+      <c r="C181" t="s"/>
+      <c r="D181" t="s">
+        <v>52</v>
+      </c>
+      <c r="E181" t="s"/>
+      <c r="F181" t="s"/>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s"/>
+      <c r="K181" t="s"/>
+      <c r="L181" t="s"/>
+      <c r="M181" t="s"/>
+      <c r="N181" t="s"/>
+      <c r="O181" t="s"/>
+      <c r="P181" t="s"/>
+      <c r="Q181" t="s"/>
+      <c r="R181" t="s"/>
+      <c r="S181" t="s"/>
+      <c r="T181" t="s"/>
+      <c r="U181" t="s"/>
+      <c r="V181" t="s"/>
+      <c r="W181" t="s"/>
+      <c r="X181" t="s"/>
+      <c r="Y181" t="s"/>
+      <c r="Z181" t="s"/>
+      <c r="AA181" t="s"/>
+      <c r="AB181" t="s"/>
+      <c r="AC181" t="s"/>
+    </row>
+    <row r="182" spans="1:29">
+      <c r="A182" t="s">
+        <v>402</v>
+      </c>
+      <c r="B182" t="s"/>
+      <c r="C182" t="n">
+        <v>187</v>
+      </c>
+      <c r="D182" t="s"/>
+      <c r="E182" t="s"/>
+      <c r="F182" t="s">
+        <v>374</v>
+      </c>
+      <c r="G182" t="s">
+        <v>393</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s"/>
+      <c r="K182" t="s"/>
+      <c r="L182" t="s">
+        <v>403</v>
+      </c>
+      <c r="M182" t="s">
+        <v>403</v>
+      </c>
+      <c r="N182" t="s"/>
+      <c r="O182" t="s"/>
+      <c r="P182" t="s"/>
+      <c r="Q182" t="s"/>
+      <c r="R182" t="s"/>
+      <c r="S182" t="s"/>
+      <c r="T182" t="s"/>
+      <c r="U182" t="s"/>
+      <c r="V182" t="s"/>
+      <c r="W182" t="s"/>
+      <c r="X182" t="s"/>
+      <c r="Y182" t="s"/>
+      <c r="Z182" t="s"/>
+      <c r="AA182" t="s"/>
+      <c r="AB182" t="s"/>
+      <c r="AC182" t="s"/>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" t="s">
+        <v>404</v>
+      </c>
+      <c r="B183" t="s"/>
+      <c r="C183" t="n">
+        <v>188</v>
+      </c>
+      <c r="D183" t="s"/>
+      <c r="E183" t="s"/>
+      <c r="F183" t="s">
+        <v>374</v>
+      </c>
+      <c r="G183" t="s">
+        <v>393</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s"/>
+      <c r="K183" t="s"/>
+      <c r="L183" t="s">
+        <v>405</v>
+      </c>
+      <c r="M183" t="s">
+        <v>405</v>
+      </c>
+      <c r="N183" t="s"/>
+      <c r="O183" t="s"/>
+      <c r="P183" t="s"/>
+      <c r="Q183" t="s"/>
+      <c r="R183" t="s"/>
+      <c r="S183" t="s"/>
+      <c r="T183" t="s"/>
+      <c r="U183" t="s"/>
+      <c r="V183" t="s"/>
+      <c r="W183" t="s"/>
+      <c r="X183" t="s"/>
+      <c r="Y183" t="s"/>
+      <c r="Z183" t="s"/>
+      <c r="AA183" t="s"/>
+      <c r="AB183" t="s"/>
+      <c r="AC183" t="s"/>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" t="s">
+        <v>406</v>
+      </c>
+      <c r="B184" t="s"/>
+      <c r="C184" t="n">
+        <v>189</v>
+      </c>
+      <c r="D184" t="s"/>
+      <c r="E184" t="s"/>
+      <c r="F184" t="s">
+        <v>374</v>
+      </c>
+      <c r="G184" t="s">
+        <v>393</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s"/>
+      <c r="K184" t="s"/>
+      <c r="L184" t="s">
+        <v>407</v>
+      </c>
+      <c r="M184" t="s">
+        <v>407</v>
+      </c>
+      <c r="N184" t="s"/>
+      <c r="O184" t="s"/>
+      <c r="P184" t="s"/>
+      <c r="Q184" t="s"/>
+      <c r="R184" t="s"/>
+      <c r="S184" t="s"/>
+      <c r="T184" t="s"/>
+      <c r="U184" t="s"/>
+      <c r="V184" t="s"/>
+      <c r="W184" t="s"/>
+      <c r="X184" t="s"/>
+      <c r="Y184" t="s"/>
+      <c r="Z184" t="s"/>
+      <c r="AA184" t="s"/>
+      <c r="AB184" t="s"/>
+      <c r="AC184" t="s"/>
+    </row>
+    <row r="185" spans="1:29">
+      <c r="A185" t="s">
+        <v>408</v>
+      </c>
+      <c r="B185" t="s"/>
+      <c r="C185" t="n">
+        <v>190</v>
+      </c>
+      <c r="D185" t="s"/>
+      <c r="E185" t="s"/>
+      <c r="F185" t="s">
+        <v>374</v>
+      </c>
+      <c r="G185" t="s">
+        <v>393</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s"/>
+      <c r="K185" t="s"/>
+      <c r="L185" t="s">
+        <v>409</v>
+      </c>
+      <c r="M185" t="s">
+        <v>409</v>
+      </c>
+      <c r="N185" t="s"/>
+      <c r="O185" t="s"/>
+      <c r="P185" t="s"/>
+      <c r="Q185" t="s"/>
+      <c r="R185" t="s"/>
+      <c r="S185" t="s"/>
+      <c r="T185" t="s"/>
+      <c r="U185" t="s"/>
+      <c r="V185" t="s"/>
+      <c r="W185" t="s"/>
+      <c r="X185" t="s"/>
+      <c r="Y185" t="s"/>
+      <c r="Z185" t="s"/>
+      <c r="AA185" t="s"/>
+      <c r="AB185" t="s"/>
+      <c r="AC185" t="s"/>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" t="s">
+        <v>410</v>
+      </c>
+      <c r="B186" t="s"/>
+      <c r="C186" t="n">
+        <v>160</v>
+      </c>
+      <c r="D186" t="s"/>
+      <c r="E186" t="s">
+        <v>53</v>
+      </c>
+      <c r="F186" t="s">
+        <v>58</v>
+      </c>
+      <c r="G186" t="s">
+        <v>411</v>
+      </c>
+      <c r="H186" t="s">
+        <v>412</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s"/>
+      <c r="K186" t="s"/>
+      <c r="L186" t="s">
+        <v>413</v>
+      </c>
+      <c r="M186" t="s">
+        <v>413</v>
+      </c>
+      <c r="N186" t="s"/>
+      <c r="O186" t="s"/>
+      <c r="P186" t="s"/>
+      <c r="Q186" t="s"/>
+      <c r="R186" t="s"/>
+      <c r="S186" t="s"/>
+      <c r="T186" t="s"/>
+      <c r="U186" t="s"/>
+      <c r="V186" t="s"/>
+      <c r="W186" t="s"/>
+      <c r="X186" t="s"/>
+      <c r="Y186" t="s"/>
+      <c r="Z186" t="s"/>
+      <c r="AA186" t="s"/>
+      <c r="AB186" t="s"/>
+      <c r="AC186" t="s"/>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" t="s">
+        <v>414</v>
+      </c>
+      <c r="B187" t="s"/>
+      <c r="C187" t="n">
+        <v>161</v>
+      </c>
+      <c r="D187" t="s"/>
+      <c r="E187" t="s">
+        <v>53</v>
+      </c>
+      <c r="F187" t="s">
+        <v>58</v>
+      </c>
+      <c r="G187" t="s">
+        <v>411</v>
+      </c>
+      <c r="H187" t="s">
+        <v>412</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s"/>
+      <c r="K187" t="s"/>
+      <c r="L187" t="s">
+        <v>415</v>
+      </c>
+      <c r="M187" t="s">
+        <v>415</v>
+      </c>
+      <c r="N187" t="s"/>
+      <c r="O187" t="s"/>
+      <c r="P187" t="s"/>
+      <c r="Q187" t="s"/>
+      <c r="R187" t="s"/>
+      <c r="S187" t="s"/>
+      <c r="T187" t="s"/>
+      <c r="U187" t="s"/>
+      <c r="V187" t="s"/>
+      <c r="W187" t="s"/>
+      <c r="X187" t="s"/>
+      <c r="Y187" t="s"/>
+      <c r="Z187" t="s"/>
+      <c r="AA187" t="s"/>
+      <c r="AB187" t="s"/>
+      <c r="AC187" t="s"/>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" t="s">
+        <v>416</v>
+      </c>
+      <c r="B188" t="s"/>
+      <c r="C188" t="n">
+        <v>165</v>
+      </c>
+      <c r="D188" t="s"/>
+      <c r="E188" t="s">
+        <v>417</v>
+      </c>
+      <c r="F188" t="s">
+        <v>58</v>
+      </c>
+      <c r="G188" t="s">
+        <v>411</v>
+      </c>
+      <c r="H188" t="s">
+        <v>412</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s"/>
+      <c r="K188" t="s"/>
+      <c r="L188" t="s">
+        <v>418</v>
+      </c>
+      <c r="M188" t="s">
+        <v>418</v>
+      </c>
+      <c r="N188" t="s"/>
+      <c r="O188" t="s"/>
+      <c r="P188" t="s"/>
+      <c r="Q188" t="s"/>
+      <c r="R188" t="s"/>
+      <c r="S188" t="s"/>
+      <c r="T188" t="s"/>
+      <c r="U188" t="s"/>
+      <c r="V188" t="s"/>
+      <c r="W188" t="s"/>
+      <c r="X188" t="s"/>
+      <c r="Y188" t="s"/>
+      <c r="Z188" t="s"/>
+      <c r="AA188" t="s"/>
+      <c r="AB188" t="s"/>
+      <c r="AC188" t="s"/>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" t="s">
+        <v>419</v>
+      </c>
+      <c r="B189" t="s"/>
+      <c r="C189" t="n">
+        <v>163</v>
+      </c>
+      <c r="D189" t="s"/>
+      <c r="E189" t="s">
+        <v>420</v>
+      </c>
+      <c r="F189" t="s">
+        <v>58</v>
+      </c>
+      <c r="G189" t="s">
+        <v>411</v>
+      </c>
+      <c r="H189" t="s">
+        <v>412</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s"/>
+      <c r="K189" t="s"/>
+      <c r="L189" t="s">
+        <v>421</v>
+      </c>
+      <c r="M189" t="s">
+        <v>421</v>
+      </c>
+      <c r="N189" t="s"/>
+      <c r="O189" t="s"/>
+      <c r="P189" t="s"/>
+      <c r="Q189" t="s"/>
+      <c r="R189" t="s"/>
+      <c r="S189" t="s"/>
+      <c r="T189" t="s"/>
+      <c r="U189" t="s"/>
+      <c r="V189" t="s"/>
+      <c r="W189" t="s"/>
+      <c r="X189" t="s"/>
+      <c r="Y189" t="s"/>
+      <c r="Z189" t="s"/>
+      <c r="AA189" t="s"/>
+      <c r="AB189" t="s"/>
+      <c r="AC189" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/test/test_old.xlsx
+++ b/test/test_old.xlsx
@@ -1297,17 +1297,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffff00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1327,10 +1322,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -2220,53 +2214,53 @@
       <c r="AC10" t="s"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="1" t="s"/>
-      <c r="C11" s="1" t="n">
+      <c r="B11" t="s"/>
+      <c r="C11" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="1" t="s"/>
-      <c r="E11" s="1" t="s">
+      <c r="D11" t="s"/>
+      <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="1" t="s"/>
-      <c r="K11" s="1" t="s"/>
-      <c r="L11" s="1" t="s">
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="1" t="s"/>
-      <c r="O11" s="1" t="s"/>
-      <c r="P11" s="1" t="s"/>
-      <c r="Q11" s="1" t="s"/>
-      <c r="R11" s="1" t="s"/>
-      <c r="S11" s="1" t="s"/>
-      <c r="T11" s="1" t="s"/>
-      <c r="U11" s="1" t="s"/>
-      <c r="V11" s="1" t="s"/>
-      <c r="W11" s="1" t="s"/>
-      <c r="X11" s="1" t="s"/>
-      <c r="Y11" s="1" t="s"/>
-      <c r="Z11" s="1" t="s"/>
-      <c r="AA11" s="1" t="s"/>
-      <c r="AB11" s="1" t="s"/>
-      <c r="AC11" s="1" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="s"/>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+      <c r="Z11" t="s"/>
+      <c r="AA11" t="s"/>
+      <c r="AB11" t="s"/>
+      <c r="AC11" t="s"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
@@ -2314,53 +2308,53 @@
       <c r="AC12" t="s"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="2" t="s"/>
-      <c r="C13" s="2" t="n">
+      <c r="B13" s="1" t="s"/>
+      <c r="C13" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="D13" s="2" t="s"/>
-      <c r="E13" s="2" t="s"/>
-      <c r="F13" s="2" t="s">
+      <c r="D13" s="1" t="s"/>
+      <c r="E13" s="1" t="s"/>
+      <c r="F13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="2" t="s"/>
-      <c r="J13" s="2" t="s"/>
-      <c r="K13" s="2" t="s"/>
-      <c r="L13" s="2" t="s">
+      <c r="I13" s="1" t="s"/>
+      <c r="J13" s="1" t="s"/>
+      <c r="K13" s="1" t="s"/>
+      <c r="L13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P13" s="2" t="s"/>
-      <c r="Q13" s="2" t="s"/>
-      <c r="R13" s="2" t="s"/>
-      <c r="S13" s="2" t="s"/>
-      <c r="T13" s="2" t="s"/>
-      <c r="U13" s="2" t="s"/>
-      <c r="V13" s="2" t="s"/>
-      <c r="W13" s="2" t="s"/>
-      <c r="X13" s="2" t="s"/>
-      <c r="Y13" s="2" t="s"/>
-      <c r="Z13" s="2" t="s"/>
-      <c r="AA13" s="2" t="s"/>
-      <c r="AB13" s="2" t="s"/>
-      <c r="AC13" s="2" t="s"/>
+      <c r="P13" s="1" t="s"/>
+      <c r="Q13" s="1" t="s"/>
+      <c r="R13" s="1" t="s"/>
+      <c r="S13" s="1" t="s"/>
+      <c r="T13" s="1" t="s"/>
+      <c r="U13" s="1" t="s"/>
+      <c r="V13" s="1" t="s"/>
+      <c r="W13" s="1" t="s"/>
+      <c r="X13" s="1" t="s"/>
+      <c r="Y13" s="1" t="s"/>
+      <c r="Z13" s="1" t="s"/>
+      <c r="AA13" s="1" t="s"/>
+      <c r="AB13" s="1" t="s"/>
+      <c r="AC13" s="1" t="s"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" t="s">
@@ -2408,53 +2402,53 @@
       <c r="AC14" t="s"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="2" t="s"/>
-      <c r="C15" s="2" t="n">
+      <c r="B15" s="1" t="s"/>
+      <c r="C15" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="D15" s="2" t="s"/>
-      <c r="E15" s="2" t="s"/>
-      <c r="F15" s="2" t="s">
+      <c r="D15" s="1" t="s"/>
+      <c r="E15" s="1" t="s"/>
+      <c r="F15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="2" t="s"/>
-      <c r="J15" s="2" t="s"/>
-      <c r="K15" s="2" t="s"/>
-      <c r="L15" s="2" t="s">
+      <c r="I15" s="1" t="s"/>
+      <c r="J15" s="1" t="s"/>
+      <c r="K15" s="1" t="s"/>
+      <c r="L15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P15" s="2" t="s"/>
-      <c r="Q15" s="2" t="s"/>
-      <c r="R15" s="2" t="s"/>
-      <c r="S15" s="2" t="s"/>
-      <c r="T15" s="2" t="s"/>
-      <c r="U15" s="2" t="s"/>
-      <c r="V15" s="2" t="s"/>
-      <c r="W15" s="2" t="s"/>
-      <c r="X15" s="2" t="s"/>
-      <c r="Y15" s="2" t="s"/>
-      <c r="Z15" s="2" t="s"/>
-      <c r="AA15" s="2" t="s"/>
-      <c r="AB15" s="2" t="s"/>
-      <c r="AC15" s="2" t="s"/>
+      <c r="P15" s="1" t="s"/>
+      <c r="Q15" s="1" t="s"/>
+      <c r="R15" s="1" t="s"/>
+      <c r="S15" s="1" t="s"/>
+      <c r="T15" s="1" t="s"/>
+      <c r="U15" s="1" t="s"/>
+      <c r="V15" s="1" t="s"/>
+      <c r="W15" s="1" t="s"/>
+      <c r="X15" s="1" t="s"/>
+      <c r="Y15" s="1" t="s"/>
+      <c r="Z15" s="1" t="s"/>
+      <c r="AA15" s="1" t="s"/>
+      <c r="AB15" s="1" t="s"/>
+      <c r="AC15" s="1" t="s"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" t="s">
